--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC296"/>
+  <dimension ref="A1:AC300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23945,9 +23945,7 @@
       <c r="T295" t="n">
         <v>403.75</v>
       </c>
-      <c r="U295" t="n">
-        <v>358.43</v>
-      </c>
+      <c r="U295" t="inlineStr"/>
       <c r="V295" t="n">
         <v>373.52</v>
       </c>
@@ -24032,11 +24030,13 @@
       <c r="R296" t="n">
         <v>383.2890909090909</v>
       </c>
-      <c r="S296" t="inlineStr"/>
-      <c r="T296" t="inlineStr"/>
-      <c r="U296" t="n">
-        <v>373.98</v>
-      </c>
+      <c r="S296" t="n">
+        <v>342.5390909090909</v>
+      </c>
+      <c r="T296" t="n">
+        <v>304.96</v>
+      </c>
+      <c r="U296" t="inlineStr"/>
       <c r="V296" t="n">
         <v>395.5</v>
       </c>
@@ -24061,6 +24061,374 @@
       <c r="AC296" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="C297" t="n">
+        <v>367.7053846153846</v>
+      </c>
+      <c r="D297" t="n">
+        <v>371.77</v>
+      </c>
+      <c r="E297" t="n">
+        <v>379.2522222222222</v>
+      </c>
+      <c r="F297" t="n">
+        <v>369.39</v>
+      </c>
+      <c r="G297" t="n">
+        <v>380.3866666666667</v>
+      </c>
+      <c r="H297" t="n">
+        <v>386.7882352941176</v>
+      </c>
+      <c r="I297" t="n">
+        <v>404.3922222222222</v>
+      </c>
+      <c r="J297" t="n">
+        <v>413.0766666666667</v>
+      </c>
+      <c r="K297" t="n">
+        <v>409.5420689655173</v>
+      </c>
+      <c r="L297" t="n">
+        <v>414.5922222222222</v>
+      </c>
+      <c r="M297" t="n">
+        <v>415.4366666666667</v>
+      </c>
+      <c r="N297" t="n">
+        <v>415.75</v>
+      </c>
+      <c r="O297" t="n">
+        <v>404.5518181818182</v>
+      </c>
+      <c r="P297" t="n">
+        <v>401.5944444444444</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>392.86</v>
+      </c>
+      <c r="R297" t="n">
+        <v>389.0118181818182</v>
+      </c>
+      <c r="S297" t="n">
+        <v>364.5018181818182</v>
+      </c>
+      <c r="T297" t="n">
+        <v>309.46</v>
+      </c>
+      <c r="U297" t="n">
+        <v>234.68</v>
+      </c>
+      <c r="V297" t="n">
+        <v>360.24</v>
+      </c>
+      <c r="W297" t="n">
+        <v>363.6053846153847</v>
+      </c>
+      <c r="X297" t="n">
+        <v>367.1853846153846</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>350.0522222222222</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>325.6722222222222</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>327.0366666666666</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>318.79</v>
+      </c>
+      <c r="AC297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>353.2842857142857</v>
+      </c>
+      <c r="C298" t="n">
+        <v>348.3830769230769</v>
+      </c>
+      <c r="D298" t="n">
+        <v>359.1342857142857</v>
+      </c>
+      <c r="E298" t="n">
+        <v>362.67</v>
+      </c>
+      <c r="F298" t="n">
+        <v>362.97</v>
+      </c>
+      <c r="G298" t="n">
+        <v>363.69</v>
+      </c>
+      <c r="H298" t="n">
+        <v>376.4494117647059</v>
+      </c>
+      <c r="I298" t="n">
+        <v>392.66</v>
+      </c>
+      <c r="J298" t="n">
+        <v>408.02</v>
+      </c>
+      <c r="K298" t="n">
+        <v>416.0844827586207</v>
+      </c>
+      <c r="L298" t="n">
+        <v>413.15</v>
+      </c>
+      <c r="M298" t="n">
+        <v>414.14</v>
+      </c>
+      <c r="N298" t="n">
+        <v>418.53</v>
+      </c>
+      <c r="O298" t="n">
+        <v>418.3590909090909</v>
+      </c>
+      <c r="P298" t="n">
+        <v>422.28</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>399.3785714285714</v>
+      </c>
+      <c r="R298" t="n">
+        <v>394.5390909090909</v>
+      </c>
+      <c r="S298" t="n">
+        <v>390.1690909090909</v>
+      </c>
+      <c r="T298" t="n">
+        <v>327.26</v>
+      </c>
+      <c r="U298" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="V298" t="n">
+        <v>338.02</v>
+      </c>
+      <c r="W298" t="n">
+        <v>353.0230769230769</v>
+      </c>
+      <c r="X298" t="n">
+        <v>350.5430769230769</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>336.42</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>314.87</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>307.6799999999999</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="AC298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>362.73</v>
+      </c>
+      <c r="C299" t="n">
+        <v>359.7107692307692</v>
+      </c>
+      <c r="D299" t="n">
+        <v>363.37</v>
+      </c>
+      <c r="E299" t="n">
+        <v>367.3422222222222</v>
+      </c>
+      <c r="F299" t="n">
+        <v>364.3</v>
+      </c>
+      <c r="G299" t="n">
+        <v>366.3566666666667</v>
+      </c>
+      <c r="H299" t="n">
+        <v>378.0647058823529</v>
+      </c>
+      <c r="I299" t="n">
+        <v>384.8022222222222</v>
+      </c>
+      <c r="J299" t="n">
+        <v>401.7966666666667</v>
+      </c>
+      <c r="K299" t="n">
+        <v>411.6024137931034</v>
+      </c>
+      <c r="L299" t="n">
+        <v>409.4622222222222</v>
+      </c>
+      <c r="M299" t="n">
+        <v>418.6166666666667</v>
+      </c>
+      <c r="N299" t="n">
+        <v>422.94</v>
+      </c>
+      <c r="O299" t="n">
+        <v>420.9827272727272</v>
+      </c>
+      <c r="P299" t="n">
+        <v>420.7544444444445</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>408.2</v>
+      </c>
+      <c r="R299" t="n">
+        <v>411.5227272727273</v>
+      </c>
+      <c r="S299" t="n">
+        <v>401.0927272727273</v>
+      </c>
+      <c r="T299" t="n">
+        <v>330.43</v>
+      </c>
+      <c r="U299" t="inlineStr"/>
+      <c r="V299" t="inlineStr"/>
+      <c r="W299" t="n">
+        <v>351.4107692307692</v>
+      </c>
+      <c r="X299" t="n">
+        <v>353.3407692307692</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>336.1422222222222</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>314.9622222222222</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>306.1366666666667</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>301.53</v>
+      </c>
+      <c r="AC299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:10+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>371.2342857142857</v>
+      </c>
+      <c r="C300" t="n">
+        <v>375.2815384615385</v>
+      </c>
+      <c r="D300" t="n">
+        <v>375.4842857142857</v>
+      </c>
+      <c r="E300" t="n">
+        <v>375.8155555555555</v>
+      </c>
+      <c r="F300" t="n">
+        <v>375.57</v>
+      </c>
+      <c r="G300" t="n">
+        <v>370.3666666666667</v>
+      </c>
+      <c r="H300" t="n">
+        <v>381.38</v>
+      </c>
+      <c r="I300" t="n">
+        <v>394.6855555555555</v>
+      </c>
+      <c r="J300" t="n">
+        <v>405.3966666666666</v>
+      </c>
+      <c r="K300" t="n">
+        <v>409.5996551724138</v>
+      </c>
+      <c r="L300" t="n">
+        <v>414.1555555555556</v>
+      </c>
+      <c r="M300" t="n">
+        <v>420.0966666666666</v>
+      </c>
+      <c r="N300" t="n">
+        <v>429.5</v>
+      </c>
+      <c r="O300" t="n">
+        <v>436.3436363636364</v>
+      </c>
+      <c r="P300" t="n">
+        <v>440.5611111111111</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>433.6085714285715</v>
+      </c>
+      <c r="R300" t="n">
+        <v>419.5936363636364</v>
+      </c>
+      <c r="S300" t="n">
+        <v>402.2336363636364</v>
+      </c>
+      <c r="T300" t="n">
+        <v>337.38</v>
+      </c>
+      <c r="U300" t="n">
+        <v>246.79</v>
+      </c>
+      <c r="V300" t="n">
+        <v>337.16</v>
+      </c>
+      <c r="W300" t="n">
+        <v>359.8415384615384</v>
+      </c>
+      <c r="X300" t="n">
+        <v>359.3515384615384</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>334.1555555555556</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>318.3155555555555</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>308.0666666666667</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>302.95</v>
+      </c>
+      <c r="AC300" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24075,7 +24443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27103,6 +27471,46 @@
       </c>
       <c r="B302" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -27271,28 +27679,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7446374801604444</v>
+        <v>-0.7589885500966872</v>
       </c>
       <c r="J2" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1054904006864129</v>
+        <v>0.1122608123780809</v>
       </c>
       <c r="M2" t="n">
-        <v>12.34077298663988</v>
+        <v>12.2454881057721</v>
       </c>
       <c r="N2" t="n">
-        <v>241.07794942991</v>
+        <v>238.4593807433567</v>
       </c>
       <c r="O2" t="n">
-        <v>15.5266850753762</v>
+        <v>15.44213005849118</v>
       </c>
       <c r="P2" t="n">
-        <v>387.9805660261608</v>
+        <v>388.1168407790012</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27348,28 +27756,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.793561209010285</v>
+        <v>-0.8032167124106155</v>
       </c>
       <c r="J3" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08202812038124907</v>
+        <v>0.08639760665581597</v>
       </c>
       <c r="M3" t="n">
-        <v>14.89124482115084</v>
+        <v>14.78915957408779</v>
       </c>
       <c r="N3" t="n">
-        <v>359.3024529952922</v>
+        <v>355.2797351946666</v>
       </c>
       <c r="O3" t="n">
-        <v>18.95527507042016</v>
+        <v>18.84886562089789</v>
       </c>
       <c r="P3" t="n">
-        <v>385.6589721483236</v>
+        <v>385.7504093868719</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27425,28 +27833,28 @@
         <v>0.099</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7531135996566906</v>
+        <v>-0.7678389586661143</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06776488762626476</v>
+        <v>0.07253508689461075</v>
       </c>
       <c r="M4" t="n">
-        <v>15.97341341217402</v>
+        <v>15.82245811533397</v>
       </c>
       <c r="N4" t="n">
-        <v>403.2514470459606</v>
+        <v>397.831403576508</v>
       </c>
       <c r="O4" t="n">
-        <v>20.08112165806384</v>
+        <v>19.94571140813253</v>
       </c>
       <c r="P4" t="n">
-        <v>390.8955937935525</v>
+        <v>391.0341003303851</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27502,28 +27910,28 @@
         <v>0.1542</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5907006618448996</v>
+        <v>-0.6293650943373236</v>
       </c>
       <c r="J5" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03702168171079923</v>
+        <v>0.04313854124517014</v>
       </c>
       <c r="M5" t="n">
-        <v>17.1775888589093</v>
+        <v>17.11466781292003</v>
       </c>
       <c r="N5" t="n">
-        <v>469.0587315958925</v>
+        <v>464.2436834059756</v>
       </c>
       <c r="O5" t="n">
-        <v>21.65776377181847</v>
+        <v>21.54631484514174</v>
       </c>
       <c r="P5" t="n">
-        <v>397.6569639281272</v>
+        <v>398.017709035029</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27579,28 +27987,28 @@
         <v>0.1525</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6106971928073044</v>
+        <v>-0.6395488880232654</v>
       </c>
       <c r="J6" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03747725118238376</v>
+        <v>0.04236199479093306</v>
       </c>
       <c r="M6" t="n">
-        <v>17.95846669819713</v>
+        <v>17.83193069623025</v>
       </c>
       <c r="N6" t="n">
-        <v>500.178833467421</v>
+        <v>493.4911405968323</v>
       </c>
       <c r="O6" t="n">
-        <v>22.36467825539686</v>
+        <v>22.21466048799379</v>
       </c>
       <c r="P6" t="n">
-        <v>391.967117495525</v>
+        <v>392.2358933336671</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27656,28 +28064,28 @@
         <v>0.1219</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5140948335339737</v>
+        <v>-0.5306784500289201</v>
       </c>
       <c r="J7" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02579758896958051</v>
+        <v>0.02834884759774448</v>
       </c>
       <c r="M7" t="n">
-        <v>18.47119118991515</v>
+        <v>18.31278032431725</v>
       </c>
       <c r="N7" t="n">
-        <v>511.2531717776521</v>
+        <v>504.4852001888868</v>
       </c>
       <c r="O7" t="n">
-        <v>22.61090824751744</v>
+        <v>22.4607479881879</v>
       </c>
       <c r="P7" t="n">
-        <v>388.3744338991852</v>
+        <v>388.5318809730298</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -27733,28 +28141,28 @@
         <v>0.1947</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3515991044592543</v>
+        <v>-0.3392191739393156</v>
       </c>
       <c r="J8" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K8" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0110717873522963</v>
+        <v>0.01067042910312421</v>
       </c>
       <c r="M8" t="n">
-        <v>19.29753557258308</v>
+        <v>19.04425103735958</v>
       </c>
       <c r="N8" t="n">
-        <v>571.9536783661365</v>
+        <v>563.2426222142055</v>
       </c>
       <c r="O8" t="n">
-        <v>23.91555306419102</v>
+        <v>23.73273313830932</v>
       </c>
       <c r="P8" t="n">
-        <v>385.6645455165503</v>
+        <v>385.5459186386952</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -27810,28 +28218,28 @@
         <v>0.1551</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1339320849007316</v>
+        <v>-0.09515697613996263</v>
       </c>
       <c r="J9" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K9" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001464971355780054</v>
+        <v>0.0007632170050135834</v>
       </c>
       <c r="M9" t="n">
-        <v>20.10773212486589</v>
+        <v>19.95875742382265</v>
       </c>
       <c r="N9" t="n">
-        <v>628.8746802739839</v>
+        <v>621.7328349271623</v>
       </c>
       <c r="O9" t="n">
-        <v>25.07737387116091</v>
+        <v>24.93457107967094</v>
       </c>
       <c r="P9" t="n">
-        <v>385.5525966090747</v>
+        <v>385.1803502247881</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -27887,28 +28295,28 @@
         <v>0.1246</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2021471635405063</v>
+        <v>0.2515205009981308</v>
       </c>
       <c r="J10" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K10" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003431488854328979</v>
+        <v>0.005470588892972361</v>
       </c>
       <c r="M10" t="n">
-        <v>20.202500900074</v>
+        <v>20.09787685847546</v>
       </c>
       <c r="N10" t="n">
-        <v>629.7937957324125</v>
+        <v>623.0492374590307</v>
       </c>
       <c r="O10" t="n">
-        <v>25.09569277251402</v>
+        <v>24.96095425778091</v>
       </c>
       <c r="P10" t="n">
-        <v>387.1633239274302</v>
+        <v>386.703359234948</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -27964,28 +28372,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5277127647620332</v>
+        <v>0.5860767854023201</v>
       </c>
       <c r="J11" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K11" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02404750391433685</v>
+        <v>0.03033325653592323</v>
       </c>
       <c r="M11" t="n">
-        <v>19.34149125989764</v>
+        <v>19.30716682284689</v>
       </c>
       <c r="N11" t="n">
-        <v>599.5786229241354</v>
+        <v>594.5208693371382</v>
       </c>
       <c r="O11" t="n">
-        <v>24.48629459359124</v>
+        <v>24.38279863627508</v>
       </c>
       <c r="P11" t="n">
-        <v>380.9280488058598</v>
+        <v>380.3825618150713</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28041,28 +28449,28 @@
         <v>0.1725</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7659173637299146</v>
+        <v>0.8198132335105642</v>
       </c>
       <c r="J12" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K12" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04163480577714285</v>
+        <v>0.04872077590579782</v>
       </c>
       <c r="M12" t="n">
-        <v>21.31066033773917</v>
+        <v>21.26335987987231</v>
       </c>
       <c r="N12" t="n">
-        <v>736.9959240254044</v>
+        <v>729.3234595603424</v>
       </c>
       <c r="O12" t="n">
-        <v>27.1476688506657</v>
+        <v>27.00598932756107</v>
       </c>
       <c r="P12" t="n">
-        <v>376.6312854733666</v>
+        <v>376.1296590423702</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28118,28 +28526,28 @@
         <v>0.1155</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8684586287165156</v>
+        <v>0.9220844015828801</v>
       </c>
       <c r="J13" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K13" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0497475545400361</v>
+        <v>0.05729199091338288</v>
       </c>
       <c r="M13" t="n">
-        <v>21.92670590658809</v>
+        <v>21.84391702480583</v>
       </c>
       <c r="N13" t="n">
-        <v>769.7511821051742</v>
+        <v>761.2138606646353</v>
       </c>
       <c r="O13" t="n">
-        <v>27.74439010151735</v>
+        <v>27.59010439749432</v>
       </c>
       <c r="P13" t="n">
-        <v>378.7256033529073</v>
+        <v>378.2166205689289</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28195,28 +28603,28 @@
         <v>0.1172</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7074600421336217</v>
+        <v>0.7833180259580219</v>
       </c>
       <c r="J14" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03892666376064235</v>
+        <v>0.04853022394347239</v>
       </c>
       <c r="M14" t="n">
-        <v>20.79233774917914</v>
+        <v>20.76783413147356</v>
       </c>
       <c r="N14" t="n">
-        <v>658.8077590875141</v>
+        <v>655.5347605946723</v>
       </c>
       <c r="O14" t="n">
-        <v>25.66725071151007</v>
+        <v>25.60341306534487</v>
       </c>
       <c r="P14" t="n">
-        <v>382.1806212001313</v>
+        <v>381.4777446699749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28272,28 +28680,28 @@
         <v>0.0678</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09092844576505635</v>
+        <v>0.1754664104703761</v>
       </c>
       <c r="J15" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K15" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000444520259408665</v>
+        <v>0.001694043596373596</v>
       </c>
       <c r="M15" t="n">
-        <v>24.81862157303245</v>
+        <v>24.6756552713055</v>
       </c>
       <c r="N15" t="n">
-        <v>979.9764299904344</v>
+        <v>975.3991781721376</v>
       </c>
       <c r="O15" t="n">
-        <v>31.30457522456477</v>
+        <v>31.2313813042609</v>
       </c>
       <c r="P15" t="n">
-        <v>392.867762018368</v>
+        <v>392.0635011444523</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -28349,28 +28757,28 @@
         <v>0.0578</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03654209353443164</v>
+        <v>0.1716619855130804</v>
       </c>
       <c r="J16" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K16" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L16" t="n">
-        <v>3.305715931378739e-05</v>
+        <v>0.000750330418416767</v>
       </c>
       <c r="M16" t="n">
-        <v>30.77715732137142</v>
+        <v>30.54765926646381</v>
       </c>
       <c r="N16" t="n">
-        <v>2023.862045842636</v>
+        <v>2011.360561887783</v>
       </c>
       <c r="O16" t="n">
-        <v>44.98735428809563</v>
+        <v>44.84819463353885</v>
       </c>
       <c r="P16" t="n">
-        <v>385.1475701189538</v>
+        <v>383.8221255918696</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -28426,28 +28834,28 @@
         <v>0.0559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3217158295696644</v>
+        <v>0.4799462644567892</v>
       </c>
       <c r="J17" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K17" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002116278099691171</v>
+        <v>0.004874083583202737</v>
       </c>
       <c r="M17" t="n">
-        <v>32.33762561602848</v>
+        <v>32.14178751482431</v>
       </c>
       <c r="N17" t="n">
-        <v>2251.496548632776</v>
+        <v>2232.778197811077</v>
       </c>
       <c r="O17" t="n">
-        <v>47.44993728797517</v>
+        <v>47.25228246139097</v>
       </c>
       <c r="P17" t="n">
-        <v>365.8371833509484</v>
+        <v>364.2236444414491</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -28503,28 +28911,28 @@
         <v>0.0919</v>
       </c>
       <c r="I18" t="n">
-        <v>2.702572738082535</v>
+        <v>2.753450621392126</v>
       </c>
       <c r="J18" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K18" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2064879942461459</v>
+        <v>0.2200760830223764</v>
       </c>
       <c r="M18" t="n">
-        <v>28.9770391489301</v>
+        <v>28.5963096302754</v>
       </c>
       <c r="N18" t="n">
-        <v>1495.164368437008</v>
+        <v>1469.254409284166</v>
       </c>
       <c r="O18" t="n">
-        <v>38.66735533285161</v>
+        <v>38.33085453370646</v>
       </c>
       <c r="P18" t="n">
-        <v>323.70632747357</v>
+        <v>323.2326845776997</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -28580,28 +28988,28 @@
         <v>0.0789</v>
       </c>
       <c r="I19" t="n">
-        <v>1.028739881887533</v>
+        <v>1.05962662040215</v>
       </c>
       <c r="J19" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K19" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02203830423308462</v>
+        <v>0.02442977566940929</v>
       </c>
       <c r="M19" t="n">
-        <v>34.21881968251721</v>
+        <v>33.84957554565334</v>
       </c>
       <c r="N19" t="n">
-        <v>2411.821741962969</v>
+        <v>2361.093402633563</v>
       </c>
       <c r="O19" t="n">
-        <v>49.11030179059144</v>
+        <v>48.59108357130516</v>
       </c>
       <c r="P19" t="n">
-        <v>348.3972361694868</v>
+        <v>348.0851299423232</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -28657,28 +29065,28 @@
         <v>0.0631</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3539801273503537</v>
+        <v>0.1548701190609715</v>
       </c>
       <c r="J20" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K20" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003117472048791758</v>
+        <v>0.0006202944388912224</v>
       </c>
       <c r="M20" t="n">
-        <v>33.6014451520346</v>
+        <v>33.94144260902884</v>
       </c>
       <c r="N20" t="n">
-        <v>2336.479476543815</v>
+        <v>2316.205417259835</v>
       </c>
       <c r="O20" t="n">
-        <v>48.3371438600153</v>
+        <v>48.12697182723878</v>
       </c>
       <c r="P20" t="n">
-        <v>352.9043282283902</v>
+        <v>354.6665197536832</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -28734,28 +29142,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.560082771150805</v>
+        <v>-1.90492002603757</v>
       </c>
       <c r="J21" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K21" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07216640485234949</v>
+        <v>0.1018243739986414</v>
       </c>
       <c r="M21" t="n">
-        <v>30.10368255146149</v>
+        <v>30.92183054288217</v>
       </c>
       <c r="N21" t="n">
-        <v>1769.547434541143</v>
+        <v>1824.286634819743</v>
       </c>
       <c r="O21" t="n">
-        <v>42.0659890474614</v>
+        <v>42.71166860261658</v>
       </c>
       <c r="P21" t="n">
-        <v>356.1798419228182</v>
+        <v>359.2012748645595</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -28811,28 +29219,28 @@
         <v>0.063</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1898864973660758</v>
+        <v>0.1653278355319867</v>
       </c>
       <c r="J22" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K22" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002298507370040892</v>
+        <v>0.001819497444980889</v>
       </c>
       <c r="M22" t="n">
-        <v>23.06351954241988</v>
+        <v>22.88541163474989</v>
       </c>
       <c r="N22" t="n">
-        <v>879.4474511985992</v>
+        <v>866.516035640018</v>
       </c>
       <c r="O22" t="n">
-        <v>29.6554792778434</v>
+        <v>29.43664443580515</v>
       </c>
       <c r="P22" t="n">
-        <v>346.9776589066382</v>
+        <v>347.1836340663442</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -28888,28 +29296,28 @@
         <v>0.0872</v>
       </c>
       <c r="I23" t="n">
-        <v>1.108027601814987</v>
+        <v>1.083576410507765</v>
       </c>
       <c r="J23" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K23" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09379929174577151</v>
+        <v>0.09331804162637114</v>
       </c>
       <c r="M23" t="n">
-        <v>19.84238595151842</v>
+        <v>19.59895148766109</v>
       </c>
       <c r="N23" t="n">
-        <v>658.5122630267996</v>
+        <v>647.308921937665</v>
       </c>
       <c r="O23" t="n">
-        <v>25.66149378011342</v>
+        <v>25.44226644655827</v>
       </c>
       <c r="P23" t="n">
-        <v>335.8392679493854</v>
+        <v>336.0611903853741</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -28965,28 +29373,28 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>1.104119166232618</v>
+        <v>1.078247269840347</v>
       </c>
       <c r="J24" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K24" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08547073769267577</v>
+        <v>0.08446952626777859</v>
       </c>
       <c r="M24" t="n">
-        <v>20.67053493007746</v>
+        <v>20.43727779080983</v>
       </c>
       <c r="N24" t="n">
-        <v>709.000804261907</v>
+        <v>698.0517150026119</v>
       </c>
       <c r="O24" t="n">
-        <v>26.62706901372938</v>
+        <v>26.42066832997629</v>
       </c>
       <c r="P24" t="n">
-        <v>337.4548119962108</v>
+        <v>337.6973149093797</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -29042,28 +29450,28 @@
         <v>0.1527</v>
       </c>
       <c r="I25" t="n">
-        <v>1.004806945586631</v>
+        <v>0.9791266267497892</v>
       </c>
       <c r="J25" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K25" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08017672986744684</v>
+        <v>0.07898502358625525</v>
       </c>
       <c r="M25" t="n">
-        <v>19.67863216021293</v>
+        <v>19.47564636664133</v>
       </c>
       <c r="N25" t="n">
-        <v>631.4860209086344</v>
+        <v>621.7747613356898</v>
       </c>
       <c r="O25" t="n">
-        <v>25.12938560547461</v>
+        <v>24.93541179398668</v>
       </c>
       <c r="P25" t="n">
-        <v>321.3322489948742</v>
+        <v>321.5709244840336</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -29119,28 +29527,28 @@
         <v>0.161</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9072675389609522</v>
+        <v>0.8844210185617919</v>
       </c>
       <c r="J26" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07682391093832719</v>
+        <v>0.07563774024236292</v>
       </c>
       <c r="M26" t="n">
-        <v>18.13718242366049</v>
+        <v>17.93864685430876</v>
       </c>
       <c r="N26" t="n">
-        <v>536.4897267390131</v>
+        <v>528.2764457998146</v>
       </c>
       <c r="O26" t="n">
-        <v>23.16224787750561</v>
+        <v>22.98426517859152</v>
       </c>
       <c r="P26" t="n">
-        <v>302.5074278574398</v>
+        <v>302.7216014131251</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -29196,28 +29604,28 @@
         <v>0.0988</v>
       </c>
       <c r="I27" t="n">
-        <v>0.775173124455573</v>
+        <v>0.7792981135767765</v>
       </c>
       <c r="J27" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K27" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06642462244649205</v>
+        <v>0.06921592827756762</v>
       </c>
       <c r="M27" t="n">
-        <v>16.77401213002051</v>
+        <v>16.6020057049368</v>
       </c>
       <c r="N27" t="n">
-        <v>449.5732543636194</v>
+        <v>443.1792494999001</v>
       </c>
       <c r="O27" t="n">
-        <v>21.20314255867793</v>
+        <v>21.05182294956663</v>
       </c>
       <c r="P27" t="n">
-        <v>291.4663375736981</v>
+        <v>291.4277763429128</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -29273,28 +29681,28 @@
         <v>0.1029</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8774084205743743</v>
+        <v>0.9013194483182325</v>
       </c>
       <c r="J28" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K28" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L28" t="n">
-        <v>0.09790225603402747</v>
+        <v>0.10554615058098</v>
       </c>
       <c r="M28" t="n">
-        <v>15.09418511889283</v>
+        <v>14.96194464618002</v>
       </c>
       <c r="N28" t="n">
-        <v>386.5179044957664</v>
+        <v>381.8668228258976</v>
       </c>
       <c r="O28" t="n">
-        <v>19.66005860865543</v>
+        <v>19.5414130201963</v>
       </c>
       <c r="P28" t="n">
-        <v>279.7723815462048</v>
+        <v>279.5492480582467</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -29331,7 +29739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC296"/>
+  <dimension ref="A1:AC300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64758,11 +65166,7 @@
           <t>-43.21855155982317,170.16226663210702</t>
         </is>
       </c>
-      <c r="U295" t="inlineStr">
-        <is>
-          <t>-43.21849123409556,170.16330993897614</t>
-        </is>
-      </c>
+      <c r="U295" t="inlineStr"/>
       <c r="V295" t="inlineStr">
         <is>
           <t>-43.21798851159038,170.1639212674919</t>
@@ -64895,13 +65299,17 @@
           <t>-43.21949237802946,170.16096188906434</t>
         </is>
       </c>
-      <c r="S296" t="inlineStr"/>
-      <c r="T296" t="inlineStr"/>
-      <c r="U296" t="inlineStr">
-        <is>
-          <t>-43.2183773586947,170.16319874399358</t>
-        </is>
-      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>-43.21939203166885,170.16198510285005</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>-43.219275018816774,170.16297306023893</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr"/>
       <c r="V296" t="inlineStr">
         <is>
           <t>-43.21782754862648,170.16376409316098</t>
@@ -64940,6 +65348,586 @@
       <c r="AC296" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-43.22604365586778,170.15015271589158</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-43.225854198361674,170.15101301675094</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-43.225591533178346,170.15183864713072</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-43.22531589970633,170.1525957070002</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-43.22502279093797,170.15332539991633</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>-43.22453443050325,170.15393498656738</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>-43.224076240871334,170.15458400021237</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>-43.22353839910949,170.1551485165268</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>-43.22308406498584,170.1557460963442</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>-43.222673410185195,170.15636416985484</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>-43.22216778542657,170.15691533538183</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>-43.22168013624389,170.15751507536638</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>-43.221195791692274,170.15811953178465</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>-43.2207831504347,170.15882621304596</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>-43.22031917157606,170.15945971379054</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>-43.219873729715374,170.1601694721935</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>-43.2194514910106,170.1609190779393</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>-43.21923119358943,170.16182805198247</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>-43.21924206450025,170.1629408812528</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>-43.21939747372411,170.16419486539175</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>-43.21808576300362,170.16401623035895</t>
+        </is>
+      </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>-43.21766889922521,170.16471139937775</t>
+        </is>
+      </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>-43.21726315393331,170.16538193602855</t>
+        </is>
+      </c>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>-43.21689154649359,170.166092411852</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>-43.216476388717645,170.16683668835944</t>
+        </is>
+      </c>
+      <c r="AA297" t="inlineStr">
+        <is>
+          <t>-43.21592609641695,170.16732434352218</t>
+        </is>
+      </c>
+      <c r="AB297" t="inlineStr">
+        <is>
+          <t>-43.215425654534215,170.16790862860213</t>
+        </is>
+      </c>
+      <c r="AC297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-43.22620492720334,170.15022909220772</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-43.22601850158662,170.15109083048486</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-43.225698978146625,170.1518895337294</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-43.225448526905524,170.15268922423104</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-43.225069139403544,170.15337256221054</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>-43.22465314533348,170.15406092622527</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>-43.224149750593995,170.15466198383007</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>-43.223621815733466,170.1552370100175</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>-43.22311849279001,170.15578678385376</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>-43.22263180488033,170.15630720981235</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>-43.22217676940117,170.15692814273046</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>-43.221688213475495,170.15752659010695</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>-43.22117847452283,170.15809484473195</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>-43.22069714268731,170.1587036014063</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>-43.22019031852805,170.15927602198283</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>-43.219830679579125,170.1601149896844</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>-43.21941200043675,170.1608777290431</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>-43.219043226026514,170.1616445117192</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>-43.219111711789566,170.16281359582115</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>-43.21942369050289,170.1642204660727</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>-43.21824848320446,170.16417512220858</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>-43.21774639469732,170.1647870718673</t>
+        </is>
+      </c>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>-43.21737481782289,170.1655183909823</t>
+        </is>
+      </c>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>-43.21696794125165,170.1662236496459</t>
+        </is>
+      </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>-43.21653242310213,170.1669452947847</t>
+        </is>
+      </c>
+      <c r="AA298" t="inlineStr">
+        <is>
+          <t>-43.21602650465047,170.16751895604025</t>
+        </is>
+      </c>
+      <c r="AB298" t="inlineStr">
+        <is>
+          <t>-43.21544894523204,170.16795377095315</t>
+        </is>
+      </c>
+      <c r="AC298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-43.226124607378225,170.15019105357874</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-43.22592217891644,170.15104521217768</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-43.2256629607004,170.15187247562505</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-43.22541115775046,170.1526628746899</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-43.225059537620076,170.1533627918229</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-43.22463418509762,170.15404081205295</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>-43.22413826574864,170.1546497999868</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>-43.22367768484927,170.15529627958645</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>-43.22316086370793,170.15583685878804</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>-43.22266030779536,170.15634623192133</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>-43.222199741515055,170.15696089127616</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>-43.221660327295986,170.157486836144</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>-43.22115100375101,170.15805568292532</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>-43.22068079961579,170.15868030297344</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>-43.22019982142381,170.15928956919015</t>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>-43.21977242080934,170.16004125991506</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>-43.21929065776866,170.16075067672955</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>-43.21896322954937,170.16156639985903</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>-43.21908849727642,170.16279092762915</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr"/>
+      <c r="V299" t="inlineStr"/>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t>-43.21775820181039,170.16479860125355</t>
+        </is>
+      </c>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t>-43.21735604632586,170.1654954518828</t>
+        </is>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>-43.21696949791245,170.16622632382396</t>
+        </is>
+      </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t>-43.21653194471807,170.16694436757408</t>
+        </is>
+      </c>
+      <c r="AA299" t="inlineStr">
+        <is>
+          <t>-43.21603451032179,170.16753447278865</t>
+        </is>
+      </c>
+      <c r="AB299" t="inlineStr">
+        <is>
+          <t>-43.21551518616639,170.16808216041383</t>
+        </is>
+      </c>
+      <c r="AC299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:10+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-43.22605229280166,170.15015680623745</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-43.22578977610071,170.1509825065898</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-43.22555994957742,170.15182368897692</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-43.22534338670783,170.1526150884201</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-43.22497817510854,170.15328000076533</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-43.22460567363683,170.15401056538957</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-43.22411469378993,170.1546247933948</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>-43.22360741394747,170.15522173169435</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>-43.223136353484705,170.155807892026</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>-43.22267304397616,170.15636366849324</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>-43.22217050553611,170.15691921310716</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>-43.221651108034976,170.1574736933675</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>-43.221110140176066,170.15799742869316</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>-43.22058511384429,170.15854389517813</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>-43.22007644285115,170.15911368276124</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>-43.21960461643646,170.1598288950825</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>-43.219232993650564,170.16069029951245</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>-43.21895487438854,170.1615582415497</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>-43.21903760108974,170.16274122928658</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>-43.21930879067116,170.1641082666009</t>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>-43.21825478110198,170.16418127195493</t>
+        </is>
+      </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t>-43.21769646231432,170.1647383140534</t>
+        </is>
+      </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>-43.21731571623781,170.16544616787098</t>
+        </is>
+      </c>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>-43.21698063114877,170.1662454495495</t>
+        </is>
+      </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>-43.21651454997699,170.16691065286557</t>
+        </is>
+      </c>
+      <c r="AA300" t="inlineStr">
+        <is>
+          <t>-43.216024498909604,170.16751506847544</t>
+        </is>
+      </c>
+      <c r="AB300" t="inlineStr">
+        <is>
+          <t>-43.21550782030576,170.16806788373316</t>
+        </is>
+      </c>
+      <c r="AC300" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -27524,7 +27524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27615,35 +27615,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27702,27 +27707,28 @@
       <c r="P2" t="n">
         <v>388.1168407790012</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.15165186391832 -43.22920900478905, 170.14806398189012 -43.221632888216774)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.1516518639183</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-43.22920900478905</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.1480639818901</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-43.22163288821677</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.1498579229042</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-43.22542094650291</v>
       </c>
     </row>
@@ -27779,27 +27785,28 @@
       <c r="P3" t="n">
         <v>385.7504093868719</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.15249388791872 -43.228980896849585, 170.14890594210425 -43.22140478637973)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.1524938879187</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-43.22898089684958</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.1489059421042</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-43.22140478637973</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.1506999150115</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-43.22519284161466</v>
       </c>
     </row>
@@ -27856,27 +27863,28 @@
       <c r="P4" t="n">
         <v>391.0341003303851</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.15333591191848 -43.22875278805622, 170.14974790231943 -43.221176683689706)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.1533359119185</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-43.22875278805622</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.1497479023194</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-43.22117668368971</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.1515419071189</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-43.22496473587296</v>
       </c>
     </row>
@@ -27933,27 +27941,28 @@
       <c r="P5" t="n">
         <v>398.017709035029</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.15473463957696 -43.22834920116404, 170.14970943630732 -43.22122224912818)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.154734639577</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-43.22834920116404</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.1497094363073</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-43.22122224912818</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.1522220379421</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-43.22478572514611</v>
       </c>
     </row>
@@ -28010,27 +28019,28 @@
       <c r="P6" t="n">
         <v>392.2358933336671</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.15603910995299 -43.227689531439374, 170.14949213461733 -43.22125538028253)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.156039109953</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-43.22768953143937</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.1494921346173</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-43.22125538028253</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.1527656222852</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-43.22447245586095</v>
       </c>
     </row>
@@ -28087,27 +28097,28 @@
       <c r="P7" t="n">
         <v>388.5318809730298</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.15680428827744 -43.22723898300539, 170.15008187760995 -43.220902082054984)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.1568042882774</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-43.22723898300539</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.1500818776099</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-43.22090208205498</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.1534430829437</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-43.22407053253019</v>
       </c>
     </row>
@@ -28164,27 +28175,28 @@
       <c r="P8" t="n">
         <v>385.5459186386952</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.1575015907998 -43.22682629772145, 170.15077915814226 -43.22048940940429)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.1575015907998</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-43.22682629772145</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.1507791581423</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-43.22048940940429</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.154140374471</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-43.22365785356287</v>
       </c>
     </row>
@@ -28241,27 +28253,28 @@
       <c r="P9" t="n">
         <v>385.1803502247881</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.15819889332158 -43.22641360964382, 170.1514764386757 -43.22007673396009)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.1581988933216</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-43.22641360964382</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.1514764386757</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-43.22007673396009</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.1548376659986</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-43.22324517180196</v>
       </c>
     </row>
@@ -28318,27 +28331,28 @@
       <c r="P10" t="n">
         <v>386.703359234948</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.15906998968788 -43.225896411641564, 170.15189828664333 -43.219827999583345)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.1590699896879</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-43.22589641164156</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.1518982866433</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-43.21982799958334</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.1554841381656</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-43.22286220561246</v>
       </c>
     </row>
@@ -28395,27 +28409,28 @@
       <c r="P11" t="n">
         <v>380.3825618150713</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.15992990945298 -43.22527776667082, 170.15216929033508 -43.21960912333279)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.159929909453</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-43.22527776667082</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.1521692903351</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-43.21960912333279</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.156049599894</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-43.2224434450018</v>
       </c>
     </row>
@@ -28472,27 +28487,28 @@
       <c r="P12" t="n">
         <v>376.1296590423702</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.16059718902233 -43.22475033216935, 170.15268124667935 -43.219197479380945)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.1605971890223</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-43.22475033216935</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.1526812466794</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-43.21919747938095</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.1566392178509</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-43.22197390577514</v>
       </c>
     </row>
@@ -28549,27 +28565,28 @@
       <c r="P13" t="n">
         <v>378.2166205689289</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (170.16120441809787 -43.22426793023086, 170.15328847670003 -43.21871509126762)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>170.1612044180979</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-43.22426793023086</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>170.1532884767</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-43.21871509126762</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>170.157246447399</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-43.22149151074924</v>
       </c>
     </row>
@@ -28626,27 +28643,28 @@
       <c r="P14" t="n">
         <v>381.4777446699749</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (170.16181164717298 -43.22378552447537, 170.1538957067215 -43.2182326993372)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>170.161811647173</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-43.22378552447537</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>170.1538957067215</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-43.2182326993372</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>170.1578536769472</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-43.22100911190628</v>
       </c>
     </row>
@@ -28703,27 +28721,28 @@
       <c r="P15" t="n">
         <v>392.0635011444523</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (170.16241887624778 -43.22330311490287, 170.1545029367437 -43.21775030358972)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>170.1624188762478</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-43.22330311490287</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>170.1545029367437</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-43.21775030358972</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>170.1584609064957</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-43.22052670924629</v>
       </c>
     </row>
@@ -28780,27 +28799,28 @@
       <c r="P16" t="n">
         <v>383.8221255918696</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (170.16302610532213 -43.22282070151337, 170.15511016676672 -43.21726790402518)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>170.1630261053221</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-43.22282070151337</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>170.1551101667667</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-43.21726790402518</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>170.1590681360444</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-43.22004430276927</v>
       </c>
     </row>
@@ -28857,27 +28877,28 @@
       <c r="P17" t="n">
         <v>364.2236444414491</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (170.1634531548045 -43.22246822248124, 170.15600319760156 -43.216581444003545)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>170.1634531548045</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-43.22246822248124</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>170.1560031976016</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-43.21658144400354</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>170.159728176203</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-43.21952483324239</v>
       </c>
     </row>
@@ -28934,27 +28955,28 @@
       <c r="P18" t="n">
         <v>323.2326845776997</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (170.16382936378417 -43.222230820070116, 170.1571619777327 -43.21586298209231)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>170.1638293637842</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-43.22223082007012</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>170.1571619777327</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-43.21586298209231</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>170.1604956707585</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-43.21904690108121</v>
       </c>
     </row>
@@ -29011,27 +29033,28 @@
       <c r="P19" t="n">
         <v>348.0851299423232</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (170.16443463380688 -43.22190049839796, 170.1580617324582 -43.21537374179011)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>170.1644346338069</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-43.22190049839796</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>170.1580617324582</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-43.21537374179011</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>170.1612481831326</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-43.21863712009403</v>
       </c>
     </row>
@@ -29088,27 +29111,28 @@
       <c r="P20" t="n">
         <v>354.6665197536832</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (170.16515387418104 -43.221508276996836, 170.15878094488275 -43.214981532495024)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>170.165153874181</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-43.22150827699684</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>170.1587809448827</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-43.21498153249502</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>170.1619674095319</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-43.21824490474593</v>
       </c>
     </row>
@@ -29165,27 +29189,28 @@
       <c r="P21" t="n">
         <v>359.2012748645595</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (170.16587311455476 -43.22111605307255, 170.15950015730837 -43.21458932067711)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>170.1658731145548</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-43.22111605307255</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>170.1595001573084</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-43.21458932067711</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>170.1626866359315</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-43.21785268687483</v>
       </c>
     </row>
@@ -29242,27 +29267,28 @@
       <c r="P22" t="n">
         <v>347.1836340663442</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (170.16659235492764 -43.220723826625196, 170.16021936973527 -43.21419710633635)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>170.1665923549276</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-43.2207238266252</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>170.1602193697353</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-43.21419710633635</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>170.1634058623314</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-43.21746046648077</v>
       </c>
     </row>
@@ -29319,27 +29345,28 @@
       <c r="P23" t="n">
         <v>336.0611903853741</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (170.16731159530016 -43.220331597654706, 170.16093858216337 -43.21380488947281)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>170.1673115953002</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-43.22033159765471</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>170.1609385821634</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-43.21380488947281</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>170.1641250887318</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-43.21706824356376</v>
       </c>
     </row>
@@ -29396,27 +29423,28 @@
       <c r="P24" t="n">
         <v>337.6973149093797</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (170.16839270746874 -43.21972680053356, 170.16108436747075 -43.213746080268955)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>170.1683927074687</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-43.21972680053356</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>170.1610843674707</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-43.21374608026895</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>170.1647385374698</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-43.21673644040126</v>
       </c>
     </row>
@@ -29473,27 +29501,28 @@
       <c r="P25" t="n">
         <v>321.5709244840336</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (170.1694624795036 -43.218853188489625, 170.16087982635167 -43.21385698030898)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>170.1694624795036</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-43.21885318848962</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>170.1608798263517</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-43.21385698030898</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>170.1651711529277</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-43.2163550843993</v>
       </c>
     </row>
@@ -29550,27 +29579,28 @@
       <c r="P26" t="n">
         <v>302.7216014131251</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (170.17011111220836 -43.21816570563533, 170.16114715437894 -43.21354064844592)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>170.1701111122084</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-43.21816570563533</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>170.1611471543789</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-43.21354064844592</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>170.1656291332936</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-43.21585317704063</v>
       </c>
     </row>
@@ -29627,27 +29657,28 @@
       <c r="P27" t="n">
         <v>291.4277763429128</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (170.17061246720002 -43.21762248121228, 170.16164853373283 -43.212997437755504)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>170.1706124672</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-43.21762248121228</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>170.1616485337328</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-43.2129974377555</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>170.1661305004664</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-43.21530995948389</v>
       </c>
     </row>
@@ -29704,27 +29735,28 @@
       <c r="P28" t="n">
         <v>279.5492480582467</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (170.17111382219164 -43.21707925195007, 170.16214991308686 -43.21245422222586)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>170.1711138221916</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-43.21707925195007</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>170.1621499130869</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-43.21245422222586</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>170.1666318676392</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-43.21476673708796</v>
       </c>
     </row>

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC300"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24432,6 +24432,188 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:19:55+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>360.6771428571428</v>
+      </c>
+      <c r="C301" t="n">
+        <v>357.5815384615385</v>
+      </c>
+      <c r="D301" t="n">
+        <v>363.5471428571428</v>
+      </c>
+      <c r="E301" t="n">
+        <v>372.54</v>
+      </c>
+      <c r="F301" t="n">
+        <v>366.98</v>
+      </c>
+      <c r="G301" t="n">
+        <v>370</v>
+      </c>
+      <c r="H301" t="n">
+        <v>371.4547058823529</v>
+      </c>
+      <c r="I301" t="n">
+        <v>379.52</v>
+      </c>
+      <c r="J301" t="n">
+        <v>388.23</v>
+      </c>
+      <c r="K301" t="n">
+        <v>400.9872413793104</v>
+      </c>
+      <c r="L301" t="n">
+        <v>404.67</v>
+      </c>
+      <c r="M301" t="n">
+        <v>410.54</v>
+      </c>
+      <c r="N301" t="n">
+        <v>423.38</v>
+      </c>
+      <c r="O301" t="n">
+        <v>417.5345454545454</v>
+      </c>
+      <c r="P301" t="n">
+        <v>424.15</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>414.9942857142857</v>
+      </c>
+      <c r="R301" t="n">
+        <v>411.9345454545455</v>
+      </c>
+      <c r="S301" t="n">
+        <v>401.0445454545454</v>
+      </c>
+      <c r="T301" t="n">
+        <v>339.45</v>
+      </c>
+      <c r="U301" t="n">
+        <v>233.32</v>
+      </c>
+      <c r="V301" t="inlineStr"/>
+      <c r="W301" t="inlineStr"/>
+      <c r="X301" t="n">
+        <v>381.0015384615385</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>337.14</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>319.71</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>311.73</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>282.16</v>
+      </c>
+      <c r="AC301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:34+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>374.2014285714286</v>
+      </c>
+      <c r="C302" t="n">
+        <v>363.6523076923077</v>
+      </c>
+      <c r="D302" t="n">
+        <v>363.3914285714285</v>
+      </c>
+      <c r="E302" t="n">
+        <v>368.3533333333333</v>
+      </c>
+      <c r="F302" t="n">
+        <v>370.13</v>
+      </c>
+      <c r="G302" t="n">
+        <v>387.62</v>
+      </c>
+      <c r="H302" t="n">
+        <v>387.98</v>
+      </c>
+      <c r="I302" t="n">
+        <v>386.9533333333333</v>
+      </c>
+      <c r="J302" t="n">
+        <v>394.34</v>
+      </c>
+      <c r="K302" t="n">
+        <v>394.7944827586207</v>
+      </c>
+      <c r="L302" t="n">
+        <v>405.1533333333333</v>
+      </c>
+      <c r="M302" t="n">
+        <v>414.4500000000001</v>
+      </c>
+      <c r="N302" t="n">
+        <v>427.43</v>
+      </c>
+      <c r="O302" t="n">
+        <v>432.1454545454546</v>
+      </c>
+      <c r="P302" t="n">
+        <v>437.3066666666667</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>435.4628571428572</v>
+      </c>
+      <c r="R302" t="n">
+        <v>417.7254545454546</v>
+      </c>
+      <c r="S302" t="n">
+        <v>405.2154545454546</v>
+      </c>
+      <c r="T302" t="n">
+        <v>310.83</v>
+      </c>
+      <c r="U302" t="n">
+        <v>223.73</v>
+      </c>
+      <c r="V302" t="n">
+        <v>369.11</v>
+      </c>
+      <c r="W302" t="n">
+        <v>367.4123076923077</v>
+      </c>
+      <c r="X302" t="n">
+        <v>362.3723076923077</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>345.7833333333333</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>333.6733333333333</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>312.78</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>299.63</v>
+      </c>
+      <c r="AC302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24443,7 +24625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27511,6 +27693,26 @@
       </c>
       <c r="B306" t="n">
         <v>0.68</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -27684,28 +27886,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7589885500966872</v>
+        <v>-0.7612967879633893</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1122608123780809</v>
+        <v>0.1145180518411474</v>
       </c>
       <c r="M2" t="n">
-        <v>12.2454881057721</v>
+        <v>12.20122867999515</v>
       </c>
       <c r="N2" t="n">
-        <v>238.4593807433567</v>
+        <v>236.9575938483949</v>
       </c>
       <c r="O2" t="n">
-        <v>15.44213005849118</v>
+        <v>15.39342696894993</v>
       </c>
       <c r="P2" t="n">
-        <v>388.1168407790012</v>
+        <v>388.1386282450554</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27762,28 +27964,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8032167124106155</v>
+        <v>-0.8110811925597839</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08639760665581597</v>
+        <v>0.08936658747534887</v>
       </c>
       <c r="M3" t="n">
-        <v>14.78915957408779</v>
+        <v>14.70688942262259</v>
       </c>
       <c r="N3" t="n">
-        <v>355.2797351946666</v>
+        <v>352.7136171101115</v>
       </c>
       <c r="O3" t="n">
-        <v>18.84886562089789</v>
+        <v>18.78067137005787</v>
       </c>
       <c r="P3" t="n">
-        <v>385.7504093868719</v>
+        <v>385.8256441036891</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27840,28 +28042,28 @@
         <v>0.099</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7678389586661143</v>
+        <v>-0.7809939873534026</v>
       </c>
       <c r="J4" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07253508689461075</v>
+        <v>0.07602425883972719</v>
       </c>
       <c r="M4" t="n">
-        <v>15.82245811533397</v>
+        <v>15.76547883993781</v>
       </c>
       <c r="N4" t="n">
-        <v>397.831403576508</v>
+        <v>395.2051656823803</v>
       </c>
       <c r="O4" t="n">
-        <v>19.94571140813253</v>
+        <v>19.87976774719414</v>
       </c>
       <c r="P4" t="n">
-        <v>391.0341003303851</v>
+        <v>391.1589859355842</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27918,28 +28120,28 @@
         <v>0.1542</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6293650943373236</v>
+        <v>-0.6486725361809624</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04313854124517014</v>
+        <v>0.04642326015315723</v>
       </c>
       <c r="M5" t="n">
-        <v>17.11466781292003</v>
+        <v>17.08251514887548</v>
       </c>
       <c r="N5" t="n">
-        <v>464.2436834059756</v>
+        <v>461.6283839450028</v>
       </c>
       <c r="O5" t="n">
-        <v>21.54631484514174</v>
+        <v>21.4855389493725</v>
       </c>
       <c r="P5" t="n">
-        <v>398.017709035029</v>
+        <v>398.1993314720759</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27996,28 +28198,28 @@
         <v>0.1525</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6395488880232654</v>
+        <v>-0.6520397451750177</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04236199479093306</v>
+        <v>0.04471396505307612</v>
       </c>
       <c r="M6" t="n">
-        <v>17.83193069623025</v>
+        <v>17.75805425952248</v>
       </c>
       <c r="N6" t="n">
-        <v>493.4911405968323</v>
+        <v>489.929518881758</v>
       </c>
       <c r="O6" t="n">
-        <v>22.21466048799379</v>
+        <v>22.13435155774296</v>
       </c>
       <c r="P6" t="n">
-        <v>392.2358933336671</v>
+        <v>392.3531776121664</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28074,28 +28276,28 @@
         <v>0.1219</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5306784500289201</v>
+        <v>-0.5247870805884221</v>
       </c>
       <c r="J7" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02834884759774448</v>
+        <v>0.02817499583923311</v>
       </c>
       <c r="M7" t="n">
-        <v>18.31278032431725</v>
+        <v>18.23942492599284</v>
       </c>
       <c r="N7" t="n">
-        <v>504.4852001888868</v>
+        <v>501.3697187959884</v>
       </c>
       <c r="O7" t="n">
-        <v>22.4607479881879</v>
+        <v>22.39128667129222</v>
       </c>
       <c r="P7" t="n">
-        <v>388.5318809730298</v>
+        <v>388.4751692283503</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28152,28 +28354,28 @@
         <v>0.1947</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3392191739393156</v>
+        <v>-0.3347394712495684</v>
       </c>
       <c r="J8" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K8" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01067042910312421</v>
+        <v>0.01056110533987653</v>
       </c>
       <c r="M8" t="n">
-        <v>19.04425103735958</v>
+        <v>18.95561585788544</v>
       </c>
       <c r="N8" t="n">
-        <v>563.2426222142055</v>
+        <v>559.3607268901366</v>
       </c>
       <c r="O8" t="n">
-        <v>23.73273313830932</v>
+        <v>23.65080816568721</v>
       </c>
       <c r="P8" t="n">
-        <v>385.5459186386952</v>
+        <v>385.5022212615535</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28230,28 +28432,28 @@
         <v>0.1551</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09515697613996263</v>
+        <v>-0.0943715174742828</v>
       </c>
       <c r="J9" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K9" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007632170050135834</v>
+        <v>0.0007637550315598984</v>
       </c>
       <c r="M9" t="n">
-        <v>19.95875742382265</v>
+        <v>19.82909982460394</v>
       </c>
       <c r="N9" t="n">
-        <v>621.7328349271623</v>
+        <v>616.8909090519946</v>
       </c>
       <c r="O9" t="n">
-        <v>24.93457107967094</v>
+        <v>24.83728868157704</v>
       </c>
       <c r="P9" t="n">
-        <v>385.1803502247881</v>
+        <v>385.172563592954</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28308,28 +28510,28 @@
         <v>0.1246</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2515205009981308</v>
+        <v>0.2486067690043436</v>
       </c>
       <c r="J10" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K10" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005470588892972361</v>
+        <v>0.005442480907595248</v>
       </c>
       <c r="M10" t="n">
-        <v>20.09787685847546</v>
+        <v>19.95776012505383</v>
       </c>
       <c r="N10" t="n">
-        <v>623.0492374590307</v>
+        <v>618.0020724049139</v>
       </c>
       <c r="O10" t="n">
-        <v>24.96095425778091</v>
+        <v>24.85964747145288</v>
       </c>
       <c r="P10" t="n">
-        <v>386.703359234948</v>
+        <v>386.7305824579456</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28386,28 +28588,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5860767854023201</v>
+        <v>0.5904456603842106</v>
       </c>
       <c r="J11" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K11" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03033325653592323</v>
+        <v>0.03131427586678903</v>
       </c>
       <c r="M11" t="n">
-        <v>19.30716682284689</v>
+        <v>19.17288668183946</v>
       </c>
       <c r="N11" t="n">
-        <v>594.5208693371382</v>
+        <v>589.7262267946641</v>
       </c>
       <c r="O11" t="n">
-        <v>24.38279863627508</v>
+        <v>24.28427941682981</v>
       </c>
       <c r="P11" t="n">
-        <v>380.3825618150713</v>
+        <v>380.3415520299254</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28464,28 +28666,28 @@
         <v>0.1725</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8198132335105642</v>
+        <v>0.8324524856123944</v>
       </c>
       <c r="J12" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K12" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04872077590579782</v>
+        <v>0.05094558423420725</v>
       </c>
       <c r="M12" t="n">
-        <v>21.26335987987231</v>
+        <v>21.15893019750682</v>
       </c>
       <c r="N12" t="n">
-        <v>729.3234595603424</v>
+        <v>723.8151163653752</v>
       </c>
       <c r="O12" t="n">
-        <v>27.00598932756107</v>
+        <v>26.90381230170503</v>
       </c>
       <c r="P12" t="n">
-        <v>376.1296590423702</v>
+        <v>376.0109976779339</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28542,28 +28744,28 @@
         <v>0.1155</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9220844015828801</v>
+        <v>0.9396777968577342</v>
       </c>
       <c r="J13" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K13" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05729199091338288</v>
+        <v>0.06026315849253949</v>
       </c>
       <c r="M13" t="n">
-        <v>21.84391702480583</v>
+        <v>21.75483762285587</v>
       </c>
       <c r="N13" t="n">
-        <v>761.2138606646353</v>
+        <v>755.8485290326128</v>
       </c>
       <c r="O13" t="n">
-        <v>27.59010439749432</v>
+        <v>27.49269955883948</v>
       </c>
       <c r="P13" t="n">
-        <v>378.2166205689289</v>
+        <v>378.0481803741421</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28620,28 +28822,28 @@
         <v>0.1172</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7833180259580219</v>
+        <v>0.8248581502887848</v>
       </c>
       <c r="J14" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K14" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04853022394347239</v>
+        <v>0.05412662821125724</v>
       </c>
       <c r="M14" t="n">
-        <v>20.76783413147356</v>
+        <v>20.77076895979409</v>
       </c>
       <c r="N14" t="n">
-        <v>655.5347605946723</v>
+        <v>654.7804340803464</v>
       </c>
       <c r="O14" t="n">
-        <v>25.60341306534487</v>
+        <v>25.58867784939946</v>
       </c>
       <c r="P14" t="n">
-        <v>381.4777446699749</v>
+        <v>381.0898839334796</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28698,28 +28900,28 @@
         <v>0.0678</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1754664104703761</v>
+        <v>0.2229947310088622</v>
       </c>
       <c r="J15" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K15" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001694043596373596</v>
+        <v>0.00276274983059599</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6756552713055</v>
+        <v>24.63105434160173</v>
       </c>
       <c r="N15" t="n">
-        <v>975.3991781721376</v>
+        <v>974.1974465159224</v>
       </c>
       <c r="O15" t="n">
-        <v>31.2313813042609</v>
+        <v>31.21213620558392</v>
       </c>
       <c r="P15" t="n">
-        <v>392.0635011444523</v>
+        <v>391.6077421132211</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28776,28 +28978,28 @@
         <v>0.0578</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1716619855130804</v>
+        <v>0.252082942685351</v>
       </c>
       <c r="J16" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K16" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000750330418416767</v>
+        <v>0.001635909509070999</v>
       </c>
       <c r="M16" t="n">
-        <v>30.54765926646381</v>
+        <v>30.47135348002254</v>
       </c>
       <c r="N16" t="n">
-        <v>2011.360561887783</v>
+        <v>2009.409184556557</v>
       </c>
       <c r="O16" t="n">
-        <v>44.84819463353885</v>
+        <v>44.82643399330976</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8221255918696</v>
+        <v>383.0274312379675</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28854,28 +29056,28 @@
         <v>0.0559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4799462644567892</v>
+        <v>0.5895535997908664</v>
       </c>
       <c r="J17" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K17" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004874083583202737</v>
+        <v>0.007430033085102594</v>
       </c>
       <c r="M17" t="n">
-        <v>32.14178751482431</v>
+        <v>32.15537786475201</v>
       </c>
       <c r="N17" t="n">
-        <v>2232.778197811077</v>
+        <v>2234.605332456925</v>
       </c>
       <c r="O17" t="n">
-        <v>47.25228246139097</v>
+        <v>47.27161233189455</v>
       </c>
       <c r="P17" t="n">
-        <v>364.2236444414491</v>
+        <v>363.0985671324468</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28932,28 +29134,28 @@
         <v>0.0919</v>
       </c>
       <c r="I18" t="n">
-        <v>2.753450621392126</v>
+        <v>2.798896905512189</v>
       </c>
       <c r="J18" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K18" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2200760830223764</v>
+        <v>0.2291958867021949</v>
       </c>
       <c r="M18" t="n">
-        <v>28.5963096302754</v>
+        <v>28.48233903381363</v>
       </c>
       <c r="N18" t="n">
-        <v>1469.254409284166</v>
+        <v>1458.683154604445</v>
       </c>
       <c r="O18" t="n">
-        <v>38.33085453370646</v>
+        <v>38.19271075224231</v>
       </c>
       <c r="P18" t="n">
-        <v>323.2326845776997</v>
+        <v>322.807044775448</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29010,28 +29212,28 @@
         <v>0.0789</v>
       </c>
       <c r="I19" t="n">
-        <v>1.05962662040215</v>
+        <v>1.116704286335969</v>
       </c>
       <c r="J19" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K19" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02442977566940929</v>
+        <v>0.02750573759802433</v>
       </c>
       <c r="M19" t="n">
-        <v>33.84957554565334</v>
+        <v>33.69805183662602</v>
       </c>
       <c r="N19" t="n">
-        <v>2361.093402633563</v>
+        <v>2343.859682290352</v>
       </c>
       <c r="O19" t="n">
-        <v>48.59108357130516</v>
+        <v>48.41342460816372</v>
       </c>
       <c r="P19" t="n">
-        <v>348.0851299423232</v>
+        <v>347.5110740614471</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29088,28 +29290,28 @@
         <v>0.0631</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1548701190609715</v>
+        <v>0.08874130706972273</v>
       </c>
       <c r="J20" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K20" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006202944388912224</v>
+        <v>0.0002068859883038732</v>
       </c>
       <c r="M20" t="n">
-        <v>33.94144260902884</v>
+        <v>33.98449837057572</v>
       </c>
       <c r="N20" t="n">
-        <v>2316.205417259835</v>
+        <v>2304.712829623928</v>
       </c>
       <c r="O20" t="n">
-        <v>48.12697182723878</v>
+        <v>48.00742473434633</v>
       </c>
       <c r="P20" t="n">
-        <v>354.6665197536832</v>
+        <v>355.2603836944673</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29166,28 +29368,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.90492002603757</v>
+        <v>-2.072254745633803</v>
       </c>
       <c r="J21" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K21" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1018243739986414</v>
+        <v>0.1169029331872203</v>
       </c>
       <c r="M21" t="n">
-        <v>30.92183054288217</v>
+        <v>31.60776940711451</v>
       </c>
       <c r="N21" t="n">
-        <v>1824.286634819743</v>
+        <v>1873.437795589657</v>
       </c>
       <c r="O21" t="n">
-        <v>42.71166860261658</v>
+        <v>43.28322764755023</v>
       </c>
       <c r="P21" t="n">
-        <v>359.2012748645595</v>
+        <v>360.6861880546777</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29244,28 +29446,28 @@
         <v>0.063</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1653278355319867</v>
+        <v>0.1871252668420738</v>
       </c>
       <c r="J22" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K22" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001819497444980889</v>
+        <v>0.002360095056392342</v>
       </c>
       <c r="M22" t="n">
-        <v>22.88541163474989</v>
+        <v>22.83975094521723</v>
       </c>
       <c r="N22" t="n">
-        <v>866.516035640018</v>
+        <v>863.2099704534327</v>
       </c>
       <c r="O22" t="n">
-        <v>29.43664443580515</v>
+        <v>29.38043516446672</v>
       </c>
       <c r="P22" t="n">
-        <v>347.1836340663442</v>
+        <v>346.9993313804725</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29322,28 +29524,28 @@
         <v>0.0872</v>
       </c>
       <c r="I23" t="n">
-        <v>1.083576410507765</v>
+        <v>1.087082087991099</v>
       </c>
       <c r="J23" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K23" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09331804162637114</v>
+        <v>0.09472447072367407</v>
       </c>
       <c r="M23" t="n">
-        <v>19.59895148766109</v>
+        <v>19.52362417597374</v>
       </c>
       <c r="N23" t="n">
-        <v>647.308921937665</v>
+        <v>644.3242530995216</v>
       </c>
       <c r="O23" t="n">
-        <v>25.44226644655827</v>
+        <v>25.38354295797814</v>
       </c>
       <c r="P23" t="n">
-        <v>336.0611903853741</v>
+        <v>336.0289973356248</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29400,28 +29602,28 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>1.078247269840347</v>
+        <v>1.089361582829012</v>
       </c>
       <c r="J24" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K24" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08446952626777859</v>
+        <v>0.08736723697979121</v>
       </c>
       <c r="M24" t="n">
-        <v>20.43727779080983</v>
+        <v>20.34696779286327</v>
       </c>
       <c r="N24" t="n">
-        <v>698.0517150026119</v>
+        <v>693.0393131379009</v>
       </c>
       <c r="O24" t="n">
-        <v>26.42066832997629</v>
+        <v>26.32563984289652</v>
       </c>
       <c r="P24" t="n">
-        <v>337.6973149093797</v>
+        <v>337.5927930627334</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29478,28 +29680,28 @@
         <v>0.1527</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9791266267497892</v>
+        <v>0.9708149312703239</v>
       </c>
       <c r="J25" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K25" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07898502358625525</v>
+        <v>0.07905605368679425</v>
       </c>
       <c r="M25" t="n">
-        <v>19.47564636664133</v>
+        <v>19.34026470635788</v>
       </c>
       <c r="N25" t="n">
-        <v>621.7747613356898</v>
+        <v>616.5936455029406</v>
       </c>
       <c r="O25" t="n">
-        <v>24.93541179398668</v>
+        <v>24.83130374150621</v>
       </c>
       <c r="P25" t="n">
-        <v>321.5709244840336</v>
+        <v>321.648472069725</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29556,28 +29758,28 @@
         <v>0.161</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8844210185617919</v>
+        <v>0.8870798218449837</v>
       </c>
       <c r="J26" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07563774024236292</v>
+        <v>0.07725561662173919</v>
       </c>
       <c r="M26" t="n">
-        <v>17.93864685430876</v>
+        <v>17.84416491230186</v>
       </c>
       <c r="N26" t="n">
-        <v>528.2764457998146</v>
+        <v>524.1564319621101</v>
       </c>
       <c r="O26" t="n">
-        <v>22.98426517859152</v>
+        <v>22.8944629105404</v>
       </c>
       <c r="P26" t="n">
-        <v>302.7216014131251</v>
+        <v>302.6961097489817</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -29634,28 +29836,28 @@
         <v>0.0988</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7792981135767765</v>
+        <v>0.7811071111654145</v>
       </c>
       <c r="J27" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K27" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06921592827756762</v>
+        <v>0.07067593498145763</v>
       </c>
       <c r="M27" t="n">
-        <v>16.6020057049368</v>
+        <v>16.46976137880376</v>
       </c>
       <c r="N27" t="n">
-        <v>443.1792494999001</v>
+        <v>439.4353037771846</v>
       </c>
       <c r="O27" t="n">
-        <v>21.05182294956663</v>
+        <v>20.96271222378403</v>
       </c>
       <c r="P27" t="n">
-        <v>291.4277763429128</v>
+        <v>291.4105114828268</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -29712,28 +29914,28 @@
         <v>0.1029</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9013194483182325</v>
+        <v>0.8833358994797328</v>
       </c>
       <c r="J28" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K28" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L28" t="n">
-        <v>0.10554615058098</v>
+        <v>0.1029536524689103</v>
       </c>
       <c r="M28" t="n">
-        <v>14.96194464618002</v>
+        <v>14.93671579323686</v>
       </c>
       <c r="N28" t="n">
-        <v>381.8668228258976</v>
+        <v>380.3880872621579</v>
       </c>
       <c r="O28" t="n">
-        <v>19.5414130201963</v>
+        <v>19.50354037763805</v>
       </c>
       <c r="P28" t="n">
-        <v>279.5492480582467</v>
+        <v>279.7184515969896</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -29771,7 +29973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC300"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65963,6 +66165,292 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:19:55+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-43.226142063457296,170.15019932058667</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-43.22594028438761,170.15105378689725</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-43.22566145440581,170.15187176223426</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-43.22536958511454,170.15263356125388</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-43.225040189663126,170.15334310413374</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-43.224608280670125,170.154013331085</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>-43.22418526326742,170.15469965793497</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>-43.22371524164573,170.15533612234063</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>-43.223253230877084,170.15594602077482</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>-43.222727813034,170.15643865063882</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>-43.222229593483604,170.15700344764858</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>-43.22171063868867,170.15755855906855</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>-43.22114826290235,170.1580517756268</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>-43.220702278918495,170.15871092354286</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>-43.22017867003834,170.15925941605272</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>-43.21972754973324,170.15998447316315</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>-43.21928771545742,170.16074759597902</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>-43.21896358239678,170.16156674439324</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>-43.21902244207781,170.1627264270622</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>-43.21940743317142,170.16420459078756</t>
+        </is>
+      </c>
+      <c r="V301" t="inlineStr"/>
+      <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>-43.21717045240336,170.1652686538809</t>
+        </is>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>-43.216963906386596,170.166216718177</t>
+        </is>
+      </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>-43.21650731657458,170.1668966330041</t>
+        </is>
+      </c>
+      <c r="AA301" t="inlineStr">
+        <is>
+          <t>-43.2160054962378,170.1674782371629</t>
+        </is>
+      </c>
+      <c r="AB301" t="inlineStr">
+        <is>
+          <t>-43.21561566256073,170.16827690675137</t>
+        </is>
+      </c>
+      <c r="AC301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:34+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-43.226027062264485,170.150144857368</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-43.22588866286211,170.1510293390462</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-43.22566277848735,170.1518723893278</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-43.2254030707269,170.1526571724152</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-43.22501744859033,170.15331996376858</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-43.224483000800824,170.15388042711356</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-43.224067767341914,170.15457501098845</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>-43.22366239036561,170.15528005419606</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>-43.22321163162094,170.15589685760847</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>-43.22276719471246,170.15649256665532</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>-43.222226582678275,170.15699915550155</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>-43.22168628241509,170.15752383722526</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>-43.2211230346303,170.15801581073666</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>-43.22061126506334,170.15858117578892</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>-43.2200967152706,170.15914258270962</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>-43.21959237026921,170.15981339700858</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>-43.21924634122724,170.1607042750804</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>-43.2189330377904,170.16153691944493</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>-43.21923203174002,170.16293108454605</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>-43.21947766189973,170.16427316921883</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>-43.21802080668362,170.16395280256754</t>
+        </is>
+      </c>
+      <c r="W302" t="inlineStr">
+        <is>
+          <t>-43.21764102067283,170.16468417669012</t>
+        </is>
+      </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>-43.217295447961156,170.1654213997467</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>-43.21691546929483,170.16613350853206</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>-43.216434884478005,170.1667562446644</t>
+        </is>
+      </c>
+      <c r="AA302" t="inlineStr">
+        <is>
+          <t>-43.216000049610045,170.16746768042154</t>
+        </is>
+      </c>
+      <c r="AB302" t="inlineStr">
+        <is>
+          <t>-43.21552504189276,170.1681012630202</t>
+        </is>
+      </c>
+      <c r="AC302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC302"/>
+  <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24614,6 +24614,57 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:24+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>388.5442857142857</v>
+      </c>
+      <c r="C303" t="n">
+        <v>378.2292307692308</v>
+      </c>
+      <c r="D303" t="n">
+        <v>381.3142857142857</v>
+      </c>
+      <c r="E303" t="n">
+        <v>387.9155555555556</v>
+      </c>
+      <c r="F303" t="n">
+        <v>386.24</v>
+      </c>
+      <c r="G303" t="n">
+        <v>376.5766666666667</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="inlineStr"/>
+      <c r="S303" t="inlineStr"/>
+      <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
+      <c r="V303" t="inlineStr"/>
+      <c r="W303" t="inlineStr"/>
+      <c r="X303" t="inlineStr"/>
+      <c r="Y303" t="inlineStr"/>
+      <c r="Z303" t="inlineStr"/>
+      <c r="AA303" t="inlineStr"/>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24625,7 +24676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27713,6 +27764,16 @@
       </c>
       <c r="B308" t="n">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -27886,28 +27947,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7612967879633893</v>
+        <v>-0.745043625355776</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1145180518411474</v>
+        <v>0.1104752747658803</v>
       </c>
       <c r="M2" t="n">
-        <v>12.20122867999515</v>
+        <v>12.23913089804254</v>
       </c>
       <c r="N2" t="n">
-        <v>236.9575938483949</v>
+        <v>237.5555262685839</v>
       </c>
       <c r="O2" t="n">
-        <v>15.39342696894993</v>
+        <v>15.41283641217878</v>
       </c>
       <c r="P2" t="n">
-        <v>388.1386282450554</v>
+        <v>387.981365672653</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27964,28 +28025,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8110811925597839</v>
+        <v>-0.8002130279889438</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08936658747534887</v>
+        <v>0.08778247327571675</v>
       </c>
       <c r="M3" t="n">
-        <v>14.70688942262259</v>
+        <v>14.70414352975846</v>
       </c>
       <c r="N3" t="n">
-        <v>352.7136171101115</v>
+        <v>351.9906722016416</v>
       </c>
       <c r="O3" t="n">
-        <v>18.78067137005787</v>
+        <v>18.76141445098534</v>
       </c>
       <c r="P3" t="n">
-        <v>385.8256441036891</v>
+        <v>385.7204400122864</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28042,28 +28103,28 @@
         <v>0.099</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7809939873534026</v>
+        <v>-0.7727605767454662</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07602425883972719</v>
+        <v>0.07511319711557873</v>
       </c>
       <c r="M4" t="n">
-        <v>15.76547883993781</v>
+        <v>15.74039105733879</v>
       </c>
       <c r="N4" t="n">
-        <v>395.2051656823803</v>
+        <v>394.0502460820368</v>
       </c>
       <c r="O4" t="n">
-        <v>19.87976774719414</v>
+        <v>19.85069888145092</v>
       </c>
       <c r="P4" t="n">
-        <v>391.1589859355842</v>
+        <v>391.080039797208</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28120,28 +28181,28 @@
         <v>0.1542</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6486725361809624</v>
+        <v>-0.6434340413345834</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04642326015315723</v>
+        <v>0.04611168066659943</v>
       </c>
       <c r="M5" t="n">
-        <v>17.08251514887548</v>
+        <v>17.03615874218825</v>
       </c>
       <c r="N5" t="n">
-        <v>461.6283839450028</v>
+        <v>459.9510541695535</v>
       </c>
       <c r="O5" t="n">
-        <v>21.4855389493725</v>
+        <v>21.44646950361652</v>
       </c>
       <c r="P5" t="n">
-        <v>398.1993314720759</v>
+        <v>398.1495930960708</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28198,28 +28259,28 @@
         <v>0.1525</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6520397451750177</v>
+        <v>-0.6431843038383233</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04471396505307612</v>
+        <v>0.04391951553987916</v>
       </c>
       <c r="M6" t="n">
-        <v>17.75805425952248</v>
+        <v>17.72065979785712</v>
       </c>
       <c r="N6" t="n">
-        <v>489.929518881758</v>
+        <v>488.3833578867058</v>
       </c>
       <c r="O6" t="n">
-        <v>22.13435155774296</v>
+        <v>22.09939722903559</v>
       </c>
       <c r="P6" t="n">
-        <v>392.3531776121664</v>
+        <v>392.2691305678329</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28276,28 +28337,28 @@
         <v>0.1219</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5247870805884221</v>
+        <v>-0.5236028238497075</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02817499583923311</v>
+        <v>0.02829261311747311</v>
       </c>
       <c r="M7" t="n">
-        <v>18.23942492599284</v>
+        <v>18.17605852221759</v>
       </c>
       <c r="N7" t="n">
-        <v>501.3697187959884</v>
+        <v>499.493266135006</v>
       </c>
       <c r="O7" t="n">
-        <v>22.39128667129222</v>
+        <v>22.34934598897708</v>
       </c>
       <c r="P7" t="n">
-        <v>388.4751692283503</v>
+        <v>388.4637376706921</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28357,7 +28418,7 @@
         <v>-0.3347394712495684</v>
       </c>
       <c r="J8" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K8" t="n">
         <v>251</v>
@@ -28435,7 +28496,7 @@
         <v>-0.0943715174742828</v>
       </c>
       <c r="J9" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
         <v>251</v>
@@ -28513,7 +28574,7 @@
         <v>0.2486067690043436</v>
       </c>
       <c r="J10" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K10" t="n">
         <v>242</v>
@@ -28591,7 +28652,7 @@
         <v>0.5904456603842106</v>
       </c>
       <c r="J11" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K11" t="n">
         <v>241</v>
@@ -28669,7 +28730,7 @@
         <v>0.8324524856123944</v>
       </c>
       <c r="J12" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K12" t="n">
         <v>242</v>
@@ -28747,7 +28808,7 @@
         <v>0.9396777968577342</v>
       </c>
       <c r="J13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K13" t="n">
         <v>239</v>
@@ -28825,7 +28886,7 @@
         <v>0.8248581502887848</v>
       </c>
       <c r="J14" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K14" t="n">
         <v>231</v>
@@ -28903,7 +28964,7 @@
         <v>0.2229947310088622</v>
       </c>
       <c r="J15" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K15" t="n">
         <v>234</v>
@@ -28981,7 +29042,7 @@
         <v>0.252082942685351</v>
       </c>
       <c r="J16" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K16" t="n">
         <v>215</v>
@@ -29059,7 +29120,7 @@
         <v>0.5895535997908664</v>
       </c>
       <c r="J17" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K17" t="n">
         <v>194</v>
@@ -29137,7 +29198,7 @@
         <v>2.798896905512189</v>
       </c>
       <c r="J18" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K18" t="n">
         <v>189</v>
@@ -29215,7 +29276,7 @@
         <v>1.116704286335969</v>
       </c>
       <c r="J19" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K19" t="n">
         <v>184</v>
@@ -29293,7 +29354,7 @@
         <v>0.08874130706972273</v>
       </c>
       <c r="J20" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K20" t="n">
         <v>179</v>
@@ -29371,7 +29432,7 @@
         <v>-2.072254745633803</v>
       </c>
       <c r="J21" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -29449,7 +29510,7 @@
         <v>0.1871252668420738</v>
       </c>
       <c r="J22" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K22" t="n">
         <v>169</v>
@@ -29527,7 +29588,7 @@
         <v>1.087082087991099</v>
       </c>
       <c r="J23" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K23" t="n">
         <v>212</v>
@@ -29605,7 +29666,7 @@
         <v>1.089361582829012</v>
       </c>
       <c r="J24" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K24" t="n">
         <v>226</v>
@@ -29683,7 +29744,7 @@
         <v>0.9708149312703239</v>
       </c>
       <c r="J25" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K25" t="n">
         <v>224</v>
@@ -29761,7 +29822,7 @@
         <v>0.8870798218449837</v>
       </c>
       <c r="J26" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K26" t="n">
         <v>232</v>
@@ -29839,7 +29900,7 @@
         <v>0.7811071111654145</v>
       </c>
       <c r="J27" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K27" t="n">
         <v>236</v>
@@ -29917,7 +29978,7 @@
         <v>0.8833358994797328</v>
       </c>
       <c r="J28" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K28" t="n">
         <v>241</v>
@@ -29973,7 +30034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC302"/>
+  <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36008,7 +36069,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>-43.2157338788334,170.1685060386631</t>
+          <t>-43.215733878833404,170.1685060386631</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -45998,7 +46059,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>-43.21989823366837,170.16138684781126</t>
+          <t>-43.219898233668374,170.16138684781126</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -57357,7 +57418,7 @@
       </c>
       <c r="AB227" t="inlineStr">
         <is>
-          <t>-43.21553209651608,170.1681149364686</t>
+          <t>-43.215532096516085,170.1681149364686</t>
         </is>
       </c>
       <c r="AC227" t="inlineStr">
@@ -66451,6 +66512,69 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:24+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-43.22590510048088,170.15008709791954</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-43.22576471100552,170.15097063586438</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-43.22551037546813,170.15180021045828</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-43.225246608988385,170.15254684935445</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-43.224901144179775,170.1532016175958</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-43.22456151996362,170.153963724602</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="inlineStr"/>
+      <c r="S303" t="inlineStr"/>
+      <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
+      <c r="V303" t="inlineStr"/>
+      <c r="W303" t="inlineStr"/>
+      <c r="X303" t="inlineStr"/>
+      <c r="Y303" t="inlineStr"/>
+      <c r="Z303" t="inlineStr"/>
+      <c r="AA303" t="inlineStr"/>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC303"/>
+  <dimension ref="A1:AC305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24665,6 +24665,142 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:19:49+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>371.9128571428572</v>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="n">
+        <v>390.3923529411765</v>
+      </c>
+      <c r="I304" t="n">
+        <v>386.8633333333333</v>
+      </c>
+      <c r="J304" t="n">
+        <v>386.41</v>
+      </c>
+      <c r="K304" t="n">
+        <v>394.7913793103448</v>
+      </c>
+      <c r="L304" t="n">
+        <v>390.7133333333333</v>
+      </c>
+      <c r="M304" t="n">
+        <v>399.19</v>
+      </c>
+      <c r="N304" t="n">
+        <v>402.205</v>
+      </c>
+      <c r="O304" t="n">
+        <v>407.0945454545454</v>
+      </c>
+      <c r="P304" t="n">
+        <v>407.7166666666667</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>396.0457142857143</v>
+      </c>
+      <c r="R304" t="n">
+        <v>416.4445454545455</v>
+      </c>
+      <c r="S304" t="n">
+        <v>387.2545454545455</v>
+      </c>
+      <c r="T304" t="inlineStr"/>
+      <c r="U304" t="inlineStr"/>
+      <c r="V304" t="n">
+        <v>397.66</v>
+      </c>
+      <c r="W304" t="n">
+        <v>379.1446153846153</v>
+      </c>
+      <c r="X304" t="n">
+        <v>369.2346153846154</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>356.8533333333333</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>332.9233333333333</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>301.55</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>281.155</v>
+      </c>
+      <c r="AC304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:51+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>397.4914285714286</v>
+      </c>
+      <c r="C305" t="n">
+        <v>389.3861538461539</v>
+      </c>
+      <c r="D305" t="n">
+        <v>395.8214285714286</v>
+      </c>
+      <c r="E305" t="n">
+        <v>401.6188888888889</v>
+      </c>
+      <c r="F305" t="n">
+        <v>402.83</v>
+      </c>
+      <c r="G305" t="n">
+        <v>405.7166666666666</v>
+      </c>
+      <c r="H305" t="n">
+        <v>396.7170588235294</v>
+      </c>
+      <c r="I305" t="n">
+        <v>398.1288888888889</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr"/>
+      <c r="R305" t="inlineStr"/>
+      <c r="S305" t="inlineStr"/>
+      <c r="T305" t="inlineStr"/>
+      <c r="U305" t="inlineStr"/>
+      <c r="V305" t="inlineStr"/>
+      <c r="W305" t="inlineStr"/>
+      <c r="X305" t="inlineStr"/>
+      <c r="Y305" t="inlineStr"/>
+      <c r="Z305" t="inlineStr"/>
+      <c r="AA305" t="inlineStr"/>
+      <c r="AB305" t="n">
+        <v>307.66</v>
+      </c>
+      <c r="AC305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24676,7 +24812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27774,6 +27910,26 @@
       </c>
       <c r="B309" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
@@ -27947,28 +28103,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.745043625355776</v>
+        <v>-0.7194758274921317</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1104752747658803</v>
+        <v>0.1042394587353731</v>
       </c>
       <c r="M2" t="n">
-        <v>12.23913089804254</v>
+        <v>12.28036585753192</v>
       </c>
       <c r="N2" t="n">
-        <v>237.5555262685839</v>
+        <v>238.8883896673082</v>
       </c>
       <c r="O2" t="n">
-        <v>15.41283641217878</v>
+        <v>15.45601467608349</v>
       </c>
       <c r="P2" t="n">
-        <v>387.981365672653</v>
+        <v>387.7325526142812</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28025,28 +28181,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8002130279889438</v>
+        <v>-0.7801865810905937</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08778247327571675</v>
+        <v>0.08402661159472224</v>
       </c>
       <c r="M3" t="n">
-        <v>14.70414352975846</v>
+        <v>14.75010496476825</v>
       </c>
       <c r="N3" t="n">
-        <v>351.9906722016416</v>
+        <v>352.88152176726</v>
       </c>
       <c r="O3" t="n">
-        <v>18.76141445098534</v>
+        <v>18.78514098342783</v>
       </c>
       <c r="P3" t="n">
-        <v>385.7204400122864</v>
+        <v>385.5254644563183</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28103,28 +28259,28 @@
         <v>0.099</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7727605767454662</v>
+        <v>-0.7527544198624799</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K4" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07511319711557873</v>
+        <v>0.07176852548022217</v>
       </c>
       <c r="M4" t="n">
-        <v>15.74039105733879</v>
+        <v>15.77027936382511</v>
       </c>
       <c r="N4" t="n">
-        <v>394.0502460820368</v>
+        <v>394.8399286841953</v>
       </c>
       <c r="O4" t="n">
-        <v>19.85069888145092</v>
+        <v>19.87057947529954</v>
       </c>
       <c r="P4" t="n">
-        <v>391.080039797208</v>
+        <v>390.8870882695302</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28181,28 +28337,28 @@
         <v>0.1542</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6434340413345834</v>
+        <v>-0.626800994403935</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04611168066659943</v>
+        <v>0.04412042165740637</v>
       </c>
       <c r="M5" t="n">
-        <v>17.03615874218825</v>
+        <v>17.03589533455349</v>
       </c>
       <c r="N5" t="n">
-        <v>459.9510541695535</v>
+        <v>459.6907471859545</v>
       </c>
       <c r="O5" t="n">
-        <v>21.44646950361652</v>
+        <v>21.44039988400297</v>
       </c>
       <c r="P5" t="n">
-        <v>398.1495930960708</v>
+        <v>397.9907546925339</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28259,28 +28415,28 @@
         <v>0.1525</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6431843038383233</v>
+        <v>-0.6204819870452403</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04391951553987916</v>
+        <v>0.0411387471616923</v>
       </c>
       <c r="M6" t="n">
-        <v>17.72065979785712</v>
+        <v>17.73647397390965</v>
       </c>
       <c r="N6" t="n">
-        <v>488.3833578867058</v>
+        <v>489.3330422536413</v>
       </c>
       <c r="O6" t="n">
-        <v>22.09939722903559</v>
+        <v>22.12087345141781</v>
       </c>
       <c r="P6" t="n">
-        <v>392.2691305678329</v>
+        <v>392.0523900707754</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28337,28 +28493,28 @@
         <v>0.1219</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5236028238497075</v>
+        <v>-0.4994533910477857</v>
       </c>
       <c r="J7" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02829261311747311</v>
+        <v>0.02585681108338889</v>
       </c>
       <c r="M7" t="n">
-        <v>18.17605852221759</v>
+        <v>18.21313749175336</v>
       </c>
       <c r="N7" t="n">
-        <v>499.493266135006</v>
+        <v>501.1067065868721</v>
       </c>
       <c r="O7" t="n">
-        <v>22.34934598897708</v>
+        <v>22.38541280805141</v>
       </c>
       <c r="P7" t="n">
-        <v>388.4637376706921</v>
+        <v>388.2292771117317</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28415,28 +28571,28 @@
         <v>0.1947</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3347394712495684</v>
+        <v>-0.3080675362457852</v>
       </c>
       <c r="J8" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K8" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01056110533987653</v>
+        <v>0.009082952012057333</v>
       </c>
       <c r="M8" t="n">
-        <v>18.95561585788544</v>
+        <v>18.9223842422324</v>
       </c>
       <c r="N8" t="n">
-        <v>559.3607268901366</v>
+        <v>557.1518286104607</v>
       </c>
       <c r="O8" t="n">
-        <v>23.65080816568721</v>
+        <v>23.60406381559033</v>
       </c>
       <c r="P8" t="n">
-        <v>385.5022212615535</v>
+        <v>385.2403294409394</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28493,28 +28649,28 @@
         <v>0.1551</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0943715174742828</v>
+        <v>-0.07861078019717462</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007637550315598984</v>
+        <v>0.0005388209066252703</v>
       </c>
       <c r="M9" t="n">
-        <v>19.82909982460394</v>
+        <v>19.74156191691645</v>
       </c>
       <c r="N9" t="n">
-        <v>616.8909090519946</v>
+        <v>612.996708104485</v>
       </c>
       <c r="O9" t="n">
-        <v>24.83728868157704</v>
+        <v>24.75877032698686</v>
       </c>
       <c r="P9" t="n">
-        <v>385.172563592954</v>
+        <v>385.017530547727</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28571,28 +28727,28 @@
         <v>0.1246</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2486067690043436</v>
+        <v>0.2430003273720829</v>
       </c>
       <c r="J10" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K10" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005442480907595248</v>
+        <v>0.005248628542791844</v>
       </c>
       <c r="M10" t="n">
-        <v>19.95776012505383</v>
+        <v>19.90436520525091</v>
       </c>
       <c r="N10" t="n">
-        <v>618.0020724049139</v>
+        <v>615.6409267262477</v>
       </c>
       <c r="O10" t="n">
-        <v>24.85964747145288</v>
+        <v>24.81211250027389</v>
       </c>
       <c r="P10" t="n">
-        <v>386.7305824579456</v>
+        <v>386.7840771322077</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28649,28 +28805,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5904456603842106</v>
+        <v>0.5898642120794897</v>
       </c>
       <c r="J11" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K11" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03131427586678903</v>
+        <v>0.03154094319376355</v>
       </c>
       <c r="M11" t="n">
-        <v>19.17288668183946</v>
+        <v>19.09648920598174</v>
       </c>
       <c r="N11" t="n">
-        <v>589.7262267946641</v>
+        <v>587.2913051703425</v>
       </c>
       <c r="O11" t="n">
-        <v>24.28427941682981</v>
+        <v>24.23409385907265</v>
       </c>
       <c r="P11" t="n">
-        <v>380.3415520299254</v>
+        <v>380.3471168408816</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28727,28 +28883,28 @@
         <v>0.1725</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8324524856123944</v>
+        <v>0.827125943975197</v>
       </c>
       <c r="J12" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05094558423420725</v>
+        <v>0.05074167789214423</v>
       </c>
       <c r="M12" t="n">
-        <v>21.15893019750682</v>
+        <v>21.09664150775785</v>
       </c>
       <c r="N12" t="n">
-        <v>723.8151163653752</v>
+        <v>721.0160132217916</v>
       </c>
       <c r="O12" t="n">
-        <v>26.90381230170503</v>
+        <v>26.8517413443112</v>
       </c>
       <c r="P12" t="n">
-        <v>376.0109976779339</v>
+        <v>376.0618348534369</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28805,28 +28961,28 @@
         <v>0.1155</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9396777968577342</v>
+        <v>0.9372569078703615</v>
       </c>
       <c r="J13" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K13" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06026315849253949</v>
+        <v>0.06047468882647788</v>
       </c>
       <c r="M13" t="n">
-        <v>21.75483762285587</v>
+        <v>21.67599623771066</v>
       </c>
       <c r="N13" t="n">
-        <v>755.8485290326128</v>
+        <v>752.7351720990034</v>
       </c>
       <c r="O13" t="n">
-        <v>27.49269955883948</v>
+        <v>27.43601961106974</v>
       </c>
       <c r="P13" t="n">
-        <v>378.0481803741421</v>
+        <v>378.0717252168676</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28883,28 +29039,28 @@
         <v>0.1172</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8248581502887848</v>
+        <v>0.8248222801214192</v>
       </c>
       <c r="J14" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K14" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05412662821125724</v>
+        <v>0.05463257868768201</v>
       </c>
       <c r="M14" t="n">
-        <v>20.77076895979409</v>
+        <v>20.68143550755083</v>
       </c>
       <c r="N14" t="n">
-        <v>654.7804340803464</v>
+        <v>651.9581117660741</v>
       </c>
       <c r="O14" t="n">
-        <v>25.58867784939946</v>
+        <v>25.53347042150898</v>
       </c>
       <c r="P14" t="n">
-        <v>381.0898839334796</v>
+        <v>381.0902240100456</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28961,28 +29117,28 @@
         <v>0.0678</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2229947310088622</v>
+        <v>0.2313122591665473</v>
       </c>
       <c r="J15" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K15" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00276274983059599</v>
+        <v>0.002998757543642649</v>
       </c>
       <c r="M15" t="n">
-        <v>24.63105434160173</v>
+        <v>24.55498395873451</v>
       </c>
       <c r="N15" t="n">
-        <v>974.1974465159224</v>
+        <v>970.4523896823378</v>
       </c>
       <c r="O15" t="n">
-        <v>31.21213620558392</v>
+        <v>31.15208483685061</v>
       </c>
       <c r="P15" t="n">
-        <v>391.6077421132211</v>
+        <v>391.5267790084341</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29039,28 +29195,28 @@
         <v>0.0578</v>
       </c>
       <c r="I16" t="n">
-        <v>0.252082942685351</v>
+        <v>0.2695559212943126</v>
       </c>
       <c r="J16" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K16" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001635909509070999</v>
+        <v>0.001888297913872905</v>
       </c>
       <c r="M16" t="n">
-        <v>30.47135348002254</v>
+        <v>30.37369154553397</v>
       </c>
       <c r="N16" t="n">
-        <v>2009.409184556557</v>
+        <v>2001.620860654473</v>
       </c>
       <c r="O16" t="n">
-        <v>44.82643399330976</v>
+        <v>44.73947765290151</v>
       </c>
       <c r="P16" t="n">
-        <v>383.0274312379675</v>
+        <v>382.8522430495193</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29117,28 +29273,28 @@
         <v>0.0559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5895535997908664</v>
+        <v>0.6097955802610098</v>
       </c>
       <c r="J17" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K17" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007430033085102594</v>
+        <v>0.008036883200257749</v>
       </c>
       <c r="M17" t="n">
-        <v>32.15537786475201</v>
+        <v>32.05282616157169</v>
       </c>
       <c r="N17" t="n">
-        <v>2234.605332456925</v>
+        <v>2224.747200702362</v>
       </c>
       <c r="O17" t="n">
-        <v>47.27161233189455</v>
+        <v>47.16722591696868</v>
       </c>
       <c r="P17" t="n">
-        <v>363.0985671324468</v>
+        <v>362.8880768565953</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29195,28 +29351,28 @@
         <v>0.0919</v>
       </c>
       <c r="I18" t="n">
-        <v>2.798896905512189</v>
+        <v>2.821861672292656</v>
       </c>
       <c r="J18" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K18" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2291958867021949</v>
+        <v>0.2339055825542435</v>
       </c>
       <c r="M18" t="n">
-        <v>28.48233903381363</v>
+        <v>28.43070836740826</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.683154604445</v>
+        <v>1453.476207994107</v>
       </c>
       <c r="O18" t="n">
-        <v>38.19271075224231</v>
+        <v>38.12448305215569</v>
       </c>
       <c r="P18" t="n">
-        <v>322.807044775448</v>
+        <v>322.5886111091646</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29273,28 +29429,28 @@
         <v>0.0789</v>
       </c>
       <c r="I19" t="n">
-        <v>1.116704286335969</v>
+        <v>1.128117268711295</v>
       </c>
       <c r="J19" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K19" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02750573759802433</v>
+        <v>0.02833661092256801</v>
       </c>
       <c r="M19" t="n">
-        <v>33.69805183662602</v>
+        <v>33.55731993130687</v>
       </c>
       <c r="N19" t="n">
-        <v>2343.859682290352</v>
+        <v>2331.84585283332</v>
       </c>
       <c r="O19" t="n">
-        <v>48.41342460816372</v>
+        <v>48.28918981338702</v>
       </c>
       <c r="P19" t="n">
-        <v>347.5110740614471</v>
+        <v>347.3943448460101</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29354,7 +29510,7 @@
         <v>0.08874130706972273</v>
       </c>
       <c r="J20" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K20" t="n">
         <v>179</v>
@@ -29432,7 +29588,7 @@
         <v>-2.072254745633803</v>
       </c>
       <c r="J21" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -29507,28 +29663,28 @@
         <v>0.063</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1871252668420738</v>
+        <v>0.2435215402704384</v>
       </c>
       <c r="J22" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K22" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002360095056392342</v>
+        <v>0.003995786897496911</v>
       </c>
       <c r="M22" t="n">
-        <v>22.83975094521723</v>
+        <v>22.93510841434419</v>
       </c>
       <c r="N22" t="n">
-        <v>863.2099704534327</v>
+        <v>870.2443246901927</v>
       </c>
       <c r="O22" t="n">
-        <v>29.38043516446672</v>
+        <v>29.49990380815152</v>
       </c>
       <c r="P22" t="n">
-        <v>346.9993313804725</v>
+        <v>346.5167243973603</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29585,28 +29741,28 @@
         <v>0.0872</v>
       </c>
       <c r="I23" t="n">
-        <v>1.087082087991099</v>
+        <v>1.101091951178278</v>
       </c>
       <c r="J23" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K23" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09472447072367407</v>
+        <v>0.09771380352398296</v>
       </c>
       <c r="M23" t="n">
-        <v>19.52362417597374</v>
+        <v>19.49847864454767</v>
       </c>
       <c r="N23" t="n">
-        <v>644.3242530995216</v>
+        <v>642.3724227286699</v>
       </c>
       <c r="O23" t="n">
-        <v>25.38354295797814</v>
+        <v>25.34506702947676</v>
       </c>
       <c r="P23" t="n">
-        <v>336.0289973356248</v>
+        <v>335.8986565151519</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29663,28 +29819,28 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>1.089361582829012</v>
+        <v>1.092516541956424</v>
       </c>
       <c r="J24" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K24" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08736723697979121</v>
+        <v>0.08857445454071822</v>
       </c>
       <c r="M24" t="n">
-        <v>20.34696779286327</v>
+        <v>20.2756338503298</v>
       </c>
       <c r="N24" t="n">
-        <v>693.0393131379009</v>
+        <v>690.0458143035454</v>
       </c>
       <c r="O24" t="n">
-        <v>26.32563984289652</v>
+        <v>26.26872311901638</v>
       </c>
       <c r="P24" t="n">
-        <v>337.5927930627334</v>
+        <v>337.5624755083531</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29741,28 +29897,28 @@
         <v>0.1527</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9708149312703239</v>
+        <v>0.9797437234204087</v>
       </c>
       <c r="J25" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K25" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07905605368679425</v>
+        <v>0.08105743256973819</v>
       </c>
       <c r="M25" t="n">
-        <v>19.34026470635788</v>
+        <v>19.30506943594535</v>
       </c>
       <c r="N25" t="n">
-        <v>616.5936455029406</v>
+        <v>614.3186201697462</v>
       </c>
       <c r="O25" t="n">
-        <v>24.83130374150621</v>
+        <v>24.78545178466082</v>
       </c>
       <c r="P25" t="n">
-        <v>321.648472069725</v>
+        <v>321.5635273326776</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29819,28 +29975,28 @@
         <v>0.161</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8870798218449837</v>
+        <v>0.893320457802057</v>
       </c>
       <c r="J26" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K26" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07725561662173919</v>
+        <v>0.07889303033666284</v>
       </c>
       <c r="M26" t="n">
-        <v>17.84416491230186</v>
+        <v>17.80034531095587</v>
       </c>
       <c r="N26" t="n">
-        <v>524.1564319621101</v>
+        <v>522.1434463531112</v>
       </c>
       <c r="O26" t="n">
-        <v>22.8944629105404</v>
+        <v>22.85045834011019</v>
       </c>
       <c r="P26" t="n">
-        <v>302.6961097489817</v>
+        <v>302.6361600776379</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -29897,28 +30053,28 @@
         <v>0.0988</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7811071111654145</v>
+        <v>0.7728215552226982</v>
       </c>
       <c r="J27" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K27" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07067593498145763</v>
+        <v>0.06982492846256516</v>
       </c>
       <c r="M27" t="n">
-        <v>16.46976137880376</v>
+        <v>16.44522732548974</v>
       </c>
       <c r="N27" t="n">
-        <v>439.4353037771846</v>
+        <v>437.9887085379419</v>
       </c>
       <c r="O27" t="n">
-        <v>20.96271222378403</v>
+        <v>20.9281797712544</v>
       </c>
       <c r="P27" t="n">
-        <v>291.4105114828268</v>
+        <v>291.4907512464352</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -29975,28 +30131,28 @@
         <v>0.1029</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8833358994797328</v>
+        <v>0.8707257706179596</v>
       </c>
       <c r="J28" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K28" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1029536524689103</v>
+        <v>0.1014468110123621</v>
       </c>
       <c r="M28" t="n">
-        <v>14.93671579323686</v>
+        <v>14.92634214814903</v>
       </c>
       <c r="N28" t="n">
-        <v>380.3880872621579</v>
+        <v>379.2110967417886</v>
       </c>
       <c r="O28" t="n">
-        <v>19.50354037763805</v>
+        <v>19.47334323483743</v>
       </c>
       <c r="P28" t="n">
-        <v>279.7184515969896</v>
+        <v>279.8393600818542</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30034,7 +30190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC303"/>
+  <dimension ref="A1:AC305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66575,6 +66731,200 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:19:49+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-43.22604652269817,170.15015407358712</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-43.224050615343785,170.15455681513853</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-43.22366303026916,170.15528073304748</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>-43.2232656221411,170.1559606651351</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>-43.22276721444825,170.1564925936749</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>-43.22231653301826,170.15712738727694</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>-43.221781340347675,170.15765935025408</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>-43.22128016610298,170.15823981476524</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>-43.220767311382204,170.15880363303867</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>-43.22028103547685,170.1594053471705</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>-43.21985269053279,170.16014284584264</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>-43.219255492922464,170.16071385735893</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>-43.21906456995187,170.1616653528505</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr"/>
+      <c r="U304" t="inlineStr"/>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>-43.21781173059939,170.16374864750196</t>
+        </is>
+      </c>
+      <c r="W304" t="inlineStr">
+        <is>
+          <t>-43.21755510354517,170.16460028102054</t>
+        </is>
+      </c>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>-43.2172494043226,170.1653651338444</t>
+        </is>
+      </c>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>-43.21685343312108,170.16602693748422</t>
+        </is>
+      </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>-43.21643877496242,170.16676378520881</t>
+        </is>
+      </c>
+      <c r="AA304" t="inlineStr">
+        <is>
+          <t>-43.21605830254268,170.16758058738267</t>
+        </is>
+      </c>
+      <c r="AB304" t="inlineStr">
+        <is>
+          <t>-43.21562087570526,170.16828701105763</t>
+        </is>
+      </c>
+      <c r="AC304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:51+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-43.22582902012453,170.15005106741052</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-43.22566984039558,170.15092570562433</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-43.22538701718515,170.15174178759256</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-43.225137007511044,170.15246956839647</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-43.2247813743439,170.15307974574557</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-43.22435433163892,170.153743928307</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-43.22400564623003,170.15450910931517</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-43.223582931697024,170.15519575939948</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr"/>
+      <c r="R305" t="inlineStr"/>
+      <c r="S305" t="inlineStr"/>
+      <c r="T305" t="inlineStr"/>
+      <c r="U305" t="inlineStr"/>
+      <c r="V305" t="inlineStr"/>
+      <c r="W305" t="inlineStr"/>
+      <c r="X305" t="inlineStr"/>
+      <c r="Y305" t="inlineStr"/>
+      <c r="Z305" t="inlineStr"/>
+      <c r="AA305" t="inlineStr"/>
+      <c r="AB305" t="inlineStr">
+        <is>
+          <t>-43.215483388460136,170.1680205294159</t>
+        </is>
+      </c>
+      <c r="AC305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC305"/>
+  <dimension ref="A1:AC309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24716,7 +24716,9 @@
         <v>387.2545454545455</v>
       </c>
       <c r="T304" t="inlineStr"/>
-      <c r="U304" t="inlineStr"/>
+      <c r="U304" t="n">
+        <v>417.74</v>
+      </c>
       <c r="V304" t="n">
         <v>397.66</v>
       </c>
@@ -24801,6 +24803,302 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:53+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>378.7228571428572</v>
+      </c>
+      <c r="C306" t="n">
+        <v>375.7746153846153</v>
+      </c>
+      <c r="D306" t="n">
+        <v>380.2228571428572</v>
+      </c>
+      <c r="E306" t="n">
+        <v>398.4933333333333</v>
+      </c>
+      <c r="F306" t="n">
+        <v>404.81</v>
+      </c>
+      <c r="G306" t="n">
+        <v>389.23</v>
+      </c>
+      <c r="H306" t="n">
+        <v>387.9623529411765</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr"/>
+      <c r="R306" t="inlineStr"/>
+      <c r="S306" t="inlineStr"/>
+      <c r="T306" t="inlineStr"/>
+      <c r="U306" t="inlineStr"/>
+      <c r="V306" t="inlineStr"/>
+      <c r="W306" t="inlineStr"/>
+      <c r="X306" t="inlineStr"/>
+      <c r="Y306" t="inlineStr"/>
+      <c r="Z306" t="inlineStr"/>
+      <c r="AA306" t="inlineStr"/>
+      <c r="AB306" t="inlineStr"/>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>379.8314285714285</v>
+      </c>
+      <c r="C307" t="n">
+        <v>372.1892307692308</v>
+      </c>
+      <c r="D307" t="n">
+        <v>373.4014285714285</v>
+      </c>
+      <c r="E307" t="n">
+        <v>383.9311111111111</v>
+      </c>
+      <c r="F307" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="G307" t="n">
+        <v>377.0333333333334</v>
+      </c>
+      <c r="H307" t="n">
+        <v>376.5535294117647</v>
+      </c>
+      <c r="I307" t="n">
+        <v>378.8211111111111</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr"/>
+      <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr"/>
+      <c r="R307" t="inlineStr"/>
+      <c r="S307" t="inlineStr"/>
+      <c r="T307" t="inlineStr"/>
+      <c r="U307" t="inlineStr"/>
+      <c r="V307" t="inlineStr"/>
+      <c r="W307" t="inlineStr"/>
+      <c r="X307" t="inlineStr"/>
+      <c r="Y307" t="inlineStr"/>
+      <c r="Z307" t="inlineStr"/>
+      <c r="AA307" t="n">
+        <v>316.5233333333334</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>301.975</v>
+      </c>
+      <c r="AC307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>367.9514285714286</v>
+      </c>
+      <c r="C308" t="n">
+        <v>366.7792307692308</v>
+      </c>
+      <c r="D308" t="n">
+        <v>383.7414285714286</v>
+      </c>
+      <c r="E308" t="n">
+        <v>389.3188888888889</v>
+      </c>
+      <c r="F308" t="n">
+        <v>393.14</v>
+      </c>
+      <c r="G308" t="n">
+        <v>393.1566666666666</v>
+      </c>
+      <c r="H308" t="n">
+        <v>387.9417647058824</v>
+      </c>
+      <c r="I308" t="n">
+        <v>386.5588888888889</v>
+      </c>
+      <c r="J308" t="n">
+        <v>390.2266666666666</v>
+      </c>
+      <c r="K308" t="n">
+        <v>397.1155172413793</v>
+      </c>
+      <c r="L308" t="n">
+        <v>392.8188888888889</v>
+      </c>
+      <c r="M308" t="n">
+        <v>389.9566666666666</v>
+      </c>
+      <c r="N308" t="n">
+        <v>394.275</v>
+      </c>
+      <c r="O308" t="n">
+        <v>397.3072727272727</v>
+      </c>
+      <c r="P308" t="n">
+        <v>400.7977777777778</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>387.8228571428572</v>
+      </c>
+      <c r="R308" t="n">
+        <v>414.1372727272728</v>
+      </c>
+      <c r="S308" t="n">
+        <v>385.0272727272728</v>
+      </c>
+      <c r="T308" t="inlineStr"/>
+      <c r="U308" t="n">
+        <v>439.1</v>
+      </c>
+      <c r="V308" t="n">
+        <v>376.3</v>
+      </c>
+      <c r="W308" t="n">
+        <v>361.8692307692308</v>
+      </c>
+      <c r="X308" t="n">
+        <v>365.9592307692308</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>355.4688888888889</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>332.4488888888889</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>315.7266666666666</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>298.835</v>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:06+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>373.7457142857143</v>
+      </c>
+      <c r="C309" t="n">
+        <v>370.3169230769231</v>
+      </c>
+      <c r="D309" t="n">
+        <v>387.7657142857143</v>
+      </c>
+      <c r="E309" t="n">
+        <v>388.33</v>
+      </c>
+      <c r="F309" t="n">
+        <v>387.04</v>
+      </c>
+      <c r="G309" t="n">
+        <v>393.2000000000001</v>
+      </c>
+      <c r="H309" t="n">
+        <v>380.1105882352941</v>
+      </c>
+      <c r="I309" t="n">
+        <v>382.77</v>
+      </c>
+      <c r="J309" t="n">
+        <v>397.5700000000001</v>
+      </c>
+      <c r="K309" t="n">
+        <v>396.6355172413793</v>
+      </c>
+      <c r="L309" t="n">
+        <v>405.9</v>
+      </c>
+      <c r="M309" t="n">
+        <v>408.4</v>
+      </c>
+      <c r="N309" t="n">
+        <v>413.09</v>
+      </c>
+      <c r="O309" t="n">
+        <v>425.2709090909091</v>
+      </c>
+      <c r="P309" t="n">
+        <v>432.6</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>421.3614285714286</v>
+      </c>
+      <c r="R309" t="n">
+        <v>410.8109090909091</v>
+      </c>
+      <c r="S309" t="n">
+        <v>370.7609090909091</v>
+      </c>
+      <c r="T309" t="n">
+        <v>403.51</v>
+      </c>
+      <c r="U309" t="n">
+        <v>399.93</v>
+      </c>
+      <c r="V309" t="n">
+        <v>391.07</v>
+      </c>
+      <c r="W309" t="n">
+        <v>380.9769230769231</v>
+      </c>
+      <c r="X309" t="n">
+        <v>374.1069230769231</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>366.12</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>334.64</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>314.02</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>294.86</v>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24812,7 +25110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27930,6 +28228,46 @@
       </c>
       <c r="B311" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -28103,28 +28441,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7194758274921317</v>
+        <v>-0.7014819858176309</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1042394587353731</v>
+        <v>0.1024612931224287</v>
       </c>
       <c r="M2" t="n">
-        <v>12.28036585753192</v>
+        <v>12.20505797898178</v>
       </c>
       <c r="N2" t="n">
-        <v>238.8883896673082</v>
+        <v>236.0503957260094</v>
       </c>
       <c r="O2" t="n">
-        <v>15.45601467608349</v>
+        <v>15.36393164935361</v>
       </c>
       <c r="P2" t="n">
-        <v>387.7325526142812</v>
+        <v>387.5571038513951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28181,28 +28519,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7801865810905937</v>
+        <v>-0.7618579811164666</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08402661159472224</v>
+        <v>0.08300588790649654</v>
       </c>
       <c r="M3" t="n">
-        <v>14.75010496476825</v>
+        <v>14.61662413382232</v>
       </c>
       <c r="N3" t="n">
-        <v>352.88152176726</v>
+        <v>348.0696153302489</v>
       </c>
       <c r="O3" t="n">
-        <v>18.78514098342783</v>
+        <v>18.65662389957649</v>
       </c>
       <c r="P3" t="n">
-        <v>385.5254644563183</v>
+        <v>385.3466766652799</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28259,28 +28597,28 @@
         <v>0.099</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7527544198624799</v>
+        <v>-0.7223893479488819</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07176852548022217</v>
+        <v>0.06842335644362141</v>
       </c>
       <c r="M4" t="n">
-        <v>15.77027936382511</v>
+        <v>15.66784750256108</v>
       </c>
       <c r="N4" t="n">
-        <v>394.8399286841953</v>
+        <v>390.5880329291509</v>
       </c>
       <c r="O4" t="n">
-        <v>19.87057947529954</v>
+        <v>19.76330015278701</v>
       </c>
       <c r="P4" t="n">
-        <v>390.8870882695302</v>
+        <v>390.593396158128</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28337,28 +28675,28 @@
         <v>0.1542</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.626800994403935</v>
+        <v>-0.6009504304591095</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04412042165740637</v>
+        <v>0.04204200607358921</v>
       </c>
       <c r="M5" t="n">
-        <v>17.03589533455349</v>
+        <v>16.87295948919244</v>
       </c>
       <c r="N5" t="n">
-        <v>459.6907471859545</v>
+        <v>453.9526842993508</v>
       </c>
       <c r="O5" t="n">
-        <v>21.44039988400297</v>
+        <v>21.30616540580099</v>
       </c>
       <c r="P5" t="n">
-        <v>397.9907546925339</v>
+        <v>397.743399203995</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28415,28 +28753,28 @@
         <v>0.1525</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6204819870452403</v>
+        <v>-0.5698269254825287</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0411387471616923</v>
+        <v>0.03583714244552871</v>
       </c>
       <c r="M6" t="n">
-        <v>17.73647397390965</v>
+        <v>17.64753263811239</v>
       </c>
       <c r="N6" t="n">
-        <v>489.3330422536413</v>
+        <v>486.4270173497374</v>
       </c>
       <c r="O6" t="n">
-        <v>22.12087345141781</v>
+        <v>22.05509050876322</v>
       </c>
       <c r="P6" t="n">
-        <v>392.0523900707754</v>
+        <v>391.5677704639613</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28493,28 +28831,28 @@
         <v>0.1219</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4994533910477857</v>
+        <v>-0.4609790782579936</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02585681108338889</v>
+        <v>0.02273670979449072</v>
       </c>
       <c r="M7" t="n">
-        <v>18.21313749175336</v>
+        <v>18.11150387036665</v>
       </c>
       <c r="N7" t="n">
-        <v>501.1067065868721</v>
+        <v>496.6508322832664</v>
       </c>
       <c r="O7" t="n">
-        <v>22.38541280805141</v>
+        <v>22.2856642773615</v>
       </c>
       <c r="P7" t="n">
-        <v>388.2292771117317</v>
+        <v>387.8547465205584</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28571,28 +28909,28 @@
         <v>0.1947</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3080675362457852</v>
+        <v>-0.2902056014163615</v>
       </c>
       <c r="J8" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K8" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009082952012057333</v>
+        <v>0.008333779745505199</v>
       </c>
       <c r="M8" t="n">
-        <v>18.9223842422324</v>
+        <v>18.7128777265318</v>
       </c>
       <c r="N8" t="n">
-        <v>557.1518286104607</v>
+        <v>549.3672988663045</v>
       </c>
       <c r="O8" t="n">
-        <v>23.60406381559033</v>
+        <v>23.43858568400202</v>
       </c>
       <c r="P8" t="n">
-        <v>385.2403294409394</v>
+        <v>385.0644799750324</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28649,28 +28987,28 @@
         <v>0.1551</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07861078019717462</v>
+        <v>-0.07925740356456151</v>
       </c>
       <c r="J9" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K9" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005388209066252703</v>
+        <v>0.000562151958147572</v>
       </c>
       <c r="M9" t="n">
-        <v>19.74156191691645</v>
+        <v>19.54159583936491</v>
       </c>
       <c r="N9" t="n">
-        <v>612.996708104485</v>
+        <v>605.9310333751971</v>
       </c>
       <c r="O9" t="n">
-        <v>24.75877032698686</v>
+        <v>24.61566642151289</v>
       </c>
       <c r="P9" t="n">
-        <v>385.017530547727</v>
+        <v>385.0238802757282</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28727,28 +29065,28 @@
         <v>0.1246</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2430003273720829</v>
+        <v>0.2444166034740919</v>
       </c>
       <c r="J10" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K10" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005248628542791844</v>
+        <v>0.005408522188901754</v>
       </c>
       <c r="M10" t="n">
-        <v>19.90436520525091</v>
+        <v>19.77154593433201</v>
       </c>
       <c r="N10" t="n">
-        <v>615.6409267262477</v>
+        <v>610.7310231157552</v>
       </c>
       <c r="O10" t="n">
-        <v>24.81211250027389</v>
+        <v>24.71297276969639</v>
       </c>
       <c r="P10" t="n">
-        <v>386.7840771322077</v>
+        <v>386.7704734547689</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28805,28 +29143,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5898642120794897</v>
+        <v>0.5920709572268003</v>
       </c>
       <c r="J11" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K11" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03154094319376355</v>
+        <v>0.0323485767863767</v>
       </c>
       <c r="M11" t="n">
-        <v>19.09648920598174</v>
+        <v>18.95081602344716</v>
       </c>
       <c r="N11" t="n">
-        <v>587.2913051703425</v>
+        <v>582.4922954431025</v>
       </c>
       <c r="O11" t="n">
-        <v>24.23409385907265</v>
+        <v>24.13487715823518</v>
       </c>
       <c r="P11" t="n">
-        <v>380.3471168408816</v>
+        <v>380.3259035305458</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28883,28 +29221,28 @@
         <v>0.1725</v>
       </c>
       <c r="I12" t="n">
-        <v>0.827125943975197</v>
+        <v>0.8302901742603905</v>
       </c>
       <c r="J12" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K12" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05074167789214423</v>
+        <v>0.05194439994807154</v>
       </c>
       <c r="M12" t="n">
-        <v>21.09664150775785</v>
+        <v>20.97926507433104</v>
       </c>
       <c r="N12" t="n">
-        <v>721.0160132217916</v>
+        <v>715.5102924897319</v>
       </c>
       <c r="O12" t="n">
-        <v>26.8517413443112</v>
+        <v>26.74902414088656</v>
       </c>
       <c r="P12" t="n">
-        <v>376.0618348534369</v>
+        <v>376.0314370807217</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28961,28 +29299,28 @@
         <v>0.1155</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9372569078703615</v>
+        <v>0.9324062297700567</v>
       </c>
       <c r="J13" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06047468882647788</v>
+        <v>0.06083478051579927</v>
       </c>
       <c r="M13" t="n">
-        <v>21.67599623771066</v>
+        <v>21.57192929168572</v>
       </c>
       <c r="N13" t="n">
-        <v>752.7351720990034</v>
+        <v>747.2891349442602</v>
       </c>
       <c r="O13" t="n">
-        <v>27.43601961106974</v>
+        <v>27.33658967289556</v>
       </c>
       <c r="P13" t="n">
-        <v>378.0717252168676</v>
+        <v>378.1190473626653</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29039,28 +29377,28 @@
         <v>0.1172</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8248222801214192</v>
+        <v>0.827164510029866</v>
       </c>
       <c r="J14" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K14" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05463257868768201</v>
+        <v>0.05589234028438406</v>
       </c>
       <c r="M14" t="n">
-        <v>20.68143550755083</v>
+        <v>20.58379383492521</v>
       </c>
       <c r="N14" t="n">
-        <v>651.9581117660741</v>
+        <v>647.1560567953114</v>
       </c>
       <c r="O14" t="n">
-        <v>25.53347042150898</v>
+        <v>25.43926211184812</v>
       </c>
       <c r="P14" t="n">
-        <v>381.0902240100456</v>
+        <v>381.0678393308038</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29117,28 +29455,28 @@
         <v>0.0678</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2313122591665473</v>
+        <v>0.2544289103688004</v>
       </c>
       <c r="J15" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K15" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002998757543642649</v>
+        <v>0.00368135286655602</v>
       </c>
       <c r="M15" t="n">
-        <v>24.55498395873451</v>
+        <v>24.43060303342866</v>
       </c>
       <c r="N15" t="n">
-        <v>970.4523896823378</v>
+        <v>965.4776778833501</v>
       </c>
       <c r="O15" t="n">
-        <v>31.15208483685061</v>
+        <v>31.07213668036606</v>
       </c>
       <c r="P15" t="n">
-        <v>391.5267790084341</v>
+        <v>391.3006088743142</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29195,28 +29533,28 @@
         <v>0.0578</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2695559212943126</v>
+        <v>0.3201202764161405</v>
       </c>
       <c r="J16" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K16" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001888297913872905</v>
+        <v>0.002704612199203482</v>
       </c>
       <c r="M16" t="n">
-        <v>30.37369154553397</v>
+        <v>30.21781384995313</v>
       </c>
       <c r="N16" t="n">
-        <v>2001.620860654473</v>
+        <v>1992.022280735958</v>
       </c>
       <c r="O16" t="n">
-        <v>44.73947765290151</v>
+        <v>44.63207681405782</v>
       </c>
       <c r="P16" t="n">
-        <v>382.8522430495193</v>
+        <v>382.3429155734834</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29273,28 +29611,28 @@
         <v>0.0559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6097955802610098</v>
+        <v>0.6674115712031133</v>
       </c>
       <c r="J17" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K17" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008036883200257749</v>
+        <v>0.009804124226175936</v>
       </c>
       <c r="M17" t="n">
-        <v>32.05282616157169</v>
+        <v>31.90116975202072</v>
       </c>
       <c r="N17" t="n">
-        <v>2224.747200702362</v>
+        <v>2211.645643256421</v>
       </c>
       <c r="O17" t="n">
-        <v>47.16722591696868</v>
+        <v>47.02813671895179</v>
       </c>
       <c r="P17" t="n">
-        <v>362.8880768565953</v>
+        <v>362.2864039813497</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29351,28 +29689,28 @@
         <v>0.0919</v>
       </c>
       <c r="I18" t="n">
-        <v>2.821861672292656</v>
+        <v>2.857186350770437</v>
       </c>
       <c r="J18" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K18" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2339055825542435</v>
+        <v>0.2422620395775319</v>
       </c>
       <c r="M18" t="n">
-        <v>28.43070836740826</v>
+        <v>28.28716719417386</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.476207994107</v>
+        <v>1441.356109185437</v>
       </c>
       <c r="O18" t="n">
-        <v>38.12448305215569</v>
+        <v>37.96519602458859</v>
       </c>
       <c r="P18" t="n">
-        <v>322.5886111091646</v>
+        <v>322.2510782300877</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29429,28 +29767,28 @@
         <v>0.0789</v>
       </c>
       <c r="I19" t="n">
-        <v>1.128117268711295</v>
+        <v>1.131027086429239</v>
       </c>
       <c r="J19" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K19" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02833661092256801</v>
+        <v>0.02905456748441693</v>
       </c>
       <c r="M19" t="n">
-        <v>33.55731993130687</v>
+        <v>33.27016272558386</v>
       </c>
       <c r="N19" t="n">
-        <v>2331.84585283332</v>
+        <v>2307.474331368901</v>
       </c>
       <c r="O19" t="n">
-        <v>48.28918981338702</v>
+        <v>48.03617731844304</v>
       </c>
       <c r="P19" t="n">
-        <v>347.3943448460101</v>
+        <v>347.3645194152949</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29507,28 +29845,28 @@
         <v>0.0631</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08874130706972273</v>
+        <v>0.1351276160520444</v>
       </c>
       <c r="J20" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K20" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002068859883038732</v>
+        <v>0.0004825812300562893</v>
       </c>
       <c r="M20" t="n">
-        <v>33.98449837057572</v>
+        <v>34.0133956109069</v>
       </c>
       <c r="N20" t="n">
-        <v>2304.712829623928</v>
+        <v>2303.449692716855</v>
       </c>
       <c r="O20" t="n">
-        <v>48.00742473434633</v>
+        <v>47.9942672901343</v>
       </c>
       <c r="P20" t="n">
-        <v>355.2603836944673</v>
+        <v>354.8341570319453</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29585,28 +29923,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.072254745633803</v>
+        <v>-1.738604858697301</v>
       </c>
       <c r="J21" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K21" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1169029331872203</v>
+        <v>0.08073715711216189</v>
       </c>
       <c r="M21" t="n">
-        <v>31.60776940711451</v>
+        <v>32.48344298885696</v>
       </c>
       <c r="N21" t="n">
-        <v>1873.437795589657</v>
+        <v>2028.761571239853</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28322764755023</v>
+        <v>45.04177584465175</v>
       </c>
       <c r="P21" t="n">
-        <v>360.6861880546777</v>
+        <v>357.6692660281672</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29663,28 +30001,28 @@
         <v>0.063</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2435215402704384</v>
+        <v>0.3170139883398297</v>
       </c>
       <c r="J22" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K22" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003995786897496911</v>
+        <v>0.006867142728418374</v>
       </c>
       <c r="M22" t="n">
-        <v>22.93510841434419</v>
+        <v>22.9847746806877</v>
       </c>
       <c r="N22" t="n">
-        <v>870.2443246901927</v>
+        <v>871.4072796327337</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49990380815152</v>
+        <v>29.51960839226587</v>
       </c>
       <c r="P22" t="n">
-        <v>346.5167243973603</v>
+        <v>345.884948456111</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29741,28 +30079,28 @@
         <v>0.0872</v>
       </c>
       <c r="I23" t="n">
-        <v>1.101091951178278</v>
+        <v>1.114028068965594</v>
       </c>
       <c r="J23" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K23" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09771380352398296</v>
+        <v>0.1014733104544742</v>
       </c>
       <c r="M23" t="n">
-        <v>19.49847864454767</v>
+        <v>19.40257371515235</v>
       </c>
       <c r="N23" t="n">
-        <v>642.3724227286699</v>
+        <v>637.7085104911225</v>
       </c>
       <c r="O23" t="n">
-        <v>25.34506702947676</v>
+        <v>25.25289113133628</v>
       </c>
       <c r="P23" t="n">
-        <v>335.8986565151519</v>
+        <v>335.7776446758973</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29819,28 +30157,28 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>1.092516541956424</v>
+        <v>1.099790538599112</v>
       </c>
       <c r="J24" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K24" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08857445454071822</v>
+        <v>0.09113869475822389</v>
       </c>
       <c r="M24" t="n">
-        <v>20.2756338503298</v>
+        <v>20.13998673783514</v>
       </c>
       <c r="N24" t="n">
-        <v>690.0458143035454</v>
+        <v>684.3235120483802</v>
       </c>
       <c r="O24" t="n">
-        <v>26.26872311901638</v>
+        <v>26.15957782626433</v>
       </c>
       <c r="P24" t="n">
-        <v>337.5624755083531</v>
+        <v>337.4922025237687</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29897,28 +30235,28 @@
         <v>0.1527</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9797437234204087</v>
+        <v>1.003566138654921</v>
       </c>
       <c r="J25" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K25" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08105743256973819</v>
+        <v>0.08594981365427845</v>
       </c>
       <c r="M25" t="n">
-        <v>19.30506943594535</v>
+        <v>19.26888588228891</v>
       </c>
       <c r="N25" t="n">
-        <v>614.3186201697462</v>
+        <v>610.8356835834988</v>
       </c>
       <c r="O25" t="n">
-        <v>24.78545178466082</v>
+        <v>24.7150901997848</v>
       </c>
       <c r="P25" t="n">
-        <v>321.5635273326776</v>
+        <v>321.3357596794563</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29975,28 +30313,28 @@
         <v>0.161</v>
       </c>
       <c r="I26" t="n">
-        <v>0.893320457802057</v>
+        <v>0.9062940615010862</v>
       </c>
       <c r="J26" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K26" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07889303033666284</v>
+        <v>0.08230305881473066</v>
       </c>
       <c r="M26" t="n">
-        <v>17.80034531095587</v>
+        <v>17.71754736785688</v>
       </c>
       <c r="N26" t="n">
-        <v>522.1434463531112</v>
+        <v>518.2279021228094</v>
       </c>
       <c r="O26" t="n">
-        <v>22.85045834011019</v>
+        <v>22.76461952510538</v>
       </c>
       <c r="P26" t="n">
-        <v>302.6361600776379</v>
+        <v>302.5109243097542</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30053,28 +30391,28 @@
         <v>0.0988</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7728215552226982</v>
+        <v>0.78265761047656</v>
       </c>
       <c r="J27" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K27" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06982492846256516</v>
+        <v>0.07327707014868845</v>
       </c>
       <c r="M27" t="n">
-        <v>16.44522732548974</v>
+        <v>16.28448381100192</v>
       </c>
       <c r="N27" t="n">
-        <v>437.9887085379419</v>
+        <v>432.7242409896265</v>
       </c>
       <c r="O27" t="n">
-        <v>20.9281797712544</v>
+        <v>20.80202492522366</v>
       </c>
       <c r="P27" t="n">
-        <v>291.4907512464352</v>
+        <v>291.3951230026043</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30131,28 +30469,28 @@
         <v>0.1029</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8707257706179596</v>
+        <v>0.8622117808594417</v>
       </c>
       <c r="J28" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K28" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1014468110123621</v>
+        <v>0.1019187642722285</v>
       </c>
       <c r="M28" t="n">
-        <v>14.92634214814903</v>
+        <v>14.79061927158003</v>
       </c>
       <c r="N28" t="n">
-        <v>379.2110967417886</v>
+        <v>374.8510542126347</v>
       </c>
       <c r="O28" t="n">
-        <v>19.47334323483743</v>
+        <v>19.36107058539467</v>
       </c>
       <c r="P28" t="n">
-        <v>279.8393600818542</v>
+        <v>279.9214370952384</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30190,7 +30528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC305"/>
+  <dimension ref="A1:AC309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66808,7 +67146,11 @@
         </is>
       </c>
       <c r="T304" t="inlineStr"/>
-      <c r="U304" t="inlineStr"/>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>-43.218056895944514,170.16288582706036</t>
+        </is>
+      </c>
       <c r="V304" t="inlineStr">
         <is>
           <t>-43.21781173059939,170.16374864750196</t>
@@ -66925,6 +67267,442 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:53+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-43.22598861515114,170.150126649311</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-43.2257855833226,170.15098052090676</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-43.22551965618874,170.15180460584594</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-43.22516200621419,170.15248719517356</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-43.224767079925165,170.153065200493</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-43.22447155354123,170.1538682832475</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-43.22406789281373,170.1545751440964</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr"/>
+      <c r="R306" t="inlineStr"/>
+      <c r="S306" t="inlineStr"/>
+      <c r="T306" t="inlineStr"/>
+      <c r="U306" t="inlineStr"/>
+      <c r="V306" t="inlineStr"/>
+      <c r="W306" t="inlineStr"/>
+      <c r="X306" t="inlineStr"/>
+      <c r="Y306" t="inlineStr"/>
+      <c r="Z306" t="inlineStr"/>
+      <c r="AA306" t="inlineStr"/>
+      <c r="AB306" t="inlineStr"/>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-43.22597918862312,170.15012218503244</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-43.22581607090196,170.15099495970938</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-43.22557766068922,170.15183207704752</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-43.225278477211106,170.15256931997305</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-43.22492597889882,170.15322688824958</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-43.224558273020776,170.1539602800593</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-43.224149010310846,170.15466119849117</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-43.22372021077078,170.1553413939245</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr"/>
+      <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr"/>
+      <c r="R307" t="inlineStr"/>
+      <c r="S307" t="inlineStr"/>
+      <c r="T307" t="inlineStr"/>
+      <c r="U307" t="inlineStr"/>
+      <c r="V307" t="inlineStr"/>
+      <c r="W307" t="inlineStr"/>
+      <c r="X307" t="inlineStr"/>
+      <c r="Y307" t="inlineStr"/>
+      <c r="Z307" t="inlineStr"/>
+      <c r="AA307" t="inlineStr">
+        <is>
+          <t>-43.21598063194227,170.16743004481629</t>
+        </is>
+      </c>
+      <c r="AB307" t="inlineStr">
+        <is>
+          <t>-43.21551287785111,170.16807768638324</t>
+        </is>
+      </c>
+      <c r="AC307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-43.22608020795422,170.15017002651896</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-43.22586207371933,170.15101674649762</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-43.225489736797066,170.15179043590314</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-43.225235384903456,170.1525389351403</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-43.2248513303384,170.15315092942714</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-43.224443634547036,170.15383866530738</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-43.22406803919751,170.154575299389</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-43.22366519488113,170.15528302940908</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-43.22323963679607,170.15592995489916</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-43.222752434534954,170.1564723590239</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-43.222303416999054,170.1571086892529</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>-43.221838856760776,170.15774134501788</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>-43.22132956354356,170.15831023529884</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-43.220828277837356,170.1588905463523</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-43.22032413411205,170.15946678836298</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>-43.219906996142086,170.16021157290928</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-43.21927197766332,170.16073111770882</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>-43.2190808808095,170.16168127948887</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr"/>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>-43.21790047234423,170.16273308816125</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>-43.217968153228206,170.1639013882548</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>-43.217681613285215,170.1647238143396</t>
+        </is>
+      </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>-43.217271380989075,170.16539198959126</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>-43.216861191539586,170.1660402655387</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>-43.21644123605378,170.16676855530187</t>
+        </is>
+      </c>
+      <c r="AA308" t="inlineStr">
+        <is>
+          <t>-43.2159847644656,170.16743805452901</t>
+        </is>
+      </c>
+      <c r="AB308" t="inlineStr">
+        <is>
+          <t>-43.21552916573526,170.1681092559547</t>
+        </is>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:06+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-43.226030937344646,170.15014669255726</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-43.22583199168403,170.1510024997375</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-43.2254555171743,170.15177422937083</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-43.22524329419534,170.1525445120605</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-43.22489536866299,170.15319574070253</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-43.224443326442646,170.1538383384542</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-43.22412371939146,170.15463436830834</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-43.223692134026365,170.1553116082297</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-43.22318964051691,170.15587086794181</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-43.222755487003965,170.15647653804893</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-43.22222193150283,170.15699252487525</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-43.22172396922807,170.1575775628513</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-43.22121236135334,170.15814315322226</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-43.220654087801535,170.15864222305996</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-43.22012603378661,170.15918437864022</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-43.21968549958624,170.15993125655376</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-43.21929574348526,170.16075600173622</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-43.219185356797915,170.16178329468232</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-43.21855331739613,170.1622683482805</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-43.21818732203461,170.16301318157315</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>-43.217859990222394,170.16379577108825</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>-43.217541685326225,170.16458717853143</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>-43.217216712859134,170.16532518453738</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>-43.2168015027378,170.16593772731994</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>-43.21642987007518,170.16674652574193</t>
+        </is>
+      </c>
+      <c r="AA309" t="inlineStr">
+        <is>
+          <t>-43.21599361740083,170.16745521341517</t>
+        </is>
+      </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>-43.215549784939775,170.1681492206437</t>
+        </is>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC309"/>
+  <dimension ref="A1:AC310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25066,9 +25066,7 @@
       <c r="S309" t="n">
         <v>370.7609090909091</v>
       </c>
-      <c r="T309" t="n">
-        <v>403.51</v>
-      </c>
+      <c r="T309" t="inlineStr"/>
       <c r="U309" t="n">
         <v>399.93</v>
       </c>
@@ -25096,6 +25094,93 @@
       <c r="AC309" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>375.8057142857143</v>
+      </c>
+      <c r="C310" t="n">
+        <v>348.3292307692308</v>
+      </c>
+      <c r="D310" t="n">
+        <v>363.6057142857143</v>
+      </c>
+      <c r="E310" t="n">
+        <v>376.5188888888889</v>
+      </c>
+      <c r="F310" t="n">
+        <v>363.54</v>
+      </c>
+      <c r="G310" t="n">
+        <v>372.0866666666667</v>
+      </c>
+      <c r="H310" t="n">
+        <v>377.0964705882353</v>
+      </c>
+      <c r="I310" t="n">
+        <v>368.1288888888889</v>
+      </c>
+      <c r="J310" t="n">
+        <v>380.6166666666667</v>
+      </c>
+      <c r="K310" t="n">
+        <v>372.0544827586207</v>
+      </c>
+      <c r="L310" t="n">
+        <v>394.4488888888889</v>
+      </c>
+      <c r="M310" t="n">
+        <v>397.2066666666666</v>
+      </c>
+      <c r="N310" t="n">
+        <v>396.55</v>
+      </c>
+      <c r="O310" t="n">
+        <v>407.14</v>
+      </c>
+      <c r="P310" t="n">
+        <v>409.7777777777778</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>403.4314285714286</v>
+      </c>
+      <c r="R310" t="inlineStr"/>
+      <c r="S310" t="inlineStr"/>
+      <c r="T310" t="n">
+        <v>230.32</v>
+      </c>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="W310" t="n">
+        <v>355.3792307692308</v>
+      </c>
+      <c r="X310" t="n">
+        <v>345.4292307692308</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>340.2388888888889</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>325.3988888888889</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>301.9866666666667</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>286.04</v>
+      </c>
+      <c r="AC310" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25110,7 +25195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28268,6 +28353,16 @@
       </c>
       <c r="B315" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -30528,7 +30623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC309"/>
+  <dimension ref="A1:AC310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67652,11 +67747,7 @@
           <t>-43.219185356797915,170.16178329468232</t>
         </is>
       </c>
-      <c r="T309" t="inlineStr">
-        <is>
-          <t>-43.21855331739613,170.1622683482805</t>
-        </is>
-      </c>
+      <c r="T309" t="inlineStr"/>
       <c r="U309" t="inlineStr">
         <is>
           <t>-43.21818732203461,170.16301318157315</t>
@@ -67700,6 +67791,141 @@
       <c r="AC309" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-43.226013420524396,170.15013839681322</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-43.22601895945614,170.15109104733168</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-43.225660956356776,170.15187152635505</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-43.225337761337244,170.15261112190117</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-43.225065024353576,170.15336837490116</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-43.224593444279826,170.153997591767</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-43.22414514996417,170.1546571031931</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-43.223796232826096,170.15542204339667</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-43.22330506538389,170.1560072803726</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-43.22291180524273,170.15669054852125</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-43.222293263329476,170.15709421432373</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-43.2217936949609,170.1576769628347</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-43.22131539215083,170.1582900326751</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-43.22076702823858,170.15880322939188</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>-43.22026819654871,170.15938704408592</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-43.219803913571674,170.16008111576326</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr"/>
+      <c r="S310" t="inlineStr"/>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>-43.21982161987625,170.1635068073505</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>-43.218001107410004,170.16393356688258</t>
+        </is>
+      </c>
+      <c r="W310" t="inlineStr">
+        <is>
+          <t>-43.21772914031215,170.16477022334936</t>
+        </is>
+      </c>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>-43.217409129858126,170.16556032094255</t>
+        </is>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>-43.216946540272986,170.16618688505977</t>
+        </is>
+      </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>-43.216477806581274,170.16683943647263</t>
+        </is>
+      </c>
+      <c r="AA310" t="inlineStr">
+        <is>
+          <t>-43.21605603744102,170.1675761971109</t>
+        </is>
+      </c>
+      <c r="AB310" t="inlineStr">
+        <is>
+          <t>-43.21559553618383,170.16823789710776</t>
+        </is>
+      </c>
+      <c r="AC310" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -28536,28 +28536,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7014819858176309</v>
+        <v>-0.696590736165388</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1024612931224287</v>
+        <v>0.1019024342354071</v>
       </c>
       <c r="M2" t="n">
-        <v>12.20505797898178</v>
+        <v>12.18618465077863</v>
       </c>
       <c r="N2" t="n">
-        <v>236.0503957260094</v>
+        <v>235.299215887073</v>
       </c>
       <c r="O2" t="n">
-        <v>15.36393164935361</v>
+        <v>15.33946595834004</v>
       </c>
       <c r="P2" t="n">
-        <v>387.5571038513951</v>
+        <v>387.5091670432888</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28614,28 +28614,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7618579811164666</v>
+        <v>-0.7754976491058562</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K3" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08300588790649654</v>
+        <v>0.08618035926954237</v>
       </c>
       <c r="M3" t="n">
-        <v>14.61662413382232</v>
+        <v>14.62257241463565</v>
       </c>
       <c r="N3" t="n">
-        <v>348.0696153302489</v>
+        <v>347.8724861394642</v>
       </c>
       <c r="O3" t="n">
-        <v>18.65662389957649</v>
+        <v>18.65134006283367</v>
       </c>
       <c r="P3" t="n">
-        <v>385.3466766652799</v>
+        <v>385.4803793857233</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28692,28 +28692,28 @@
         <v>0.099</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7223893479488819</v>
+        <v>-0.7288411735129473</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K4" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06842335644362141</v>
+        <v>0.07008776910532766</v>
       </c>
       <c r="M4" t="n">
-        <v>15.66784750256108</v>
+        <v>15.64146489942303</v>
       </c>
       <c r="N4" t="n">
-        <v>390.5880329291509</v>
+        <v>389.3542655833745</v>
       </c>
       <c r="O4" t="n">
-        <v>19.76330015278701</v>
+        <v>19.73206186852693</v>
       </c>
       <c r="P4" t="n">
-        <v>390.593396158128</v>
+        <v>390.6560526075503</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28770,28 +28770,28 @@
         <v>0.1542</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6009504304591095</v>
+        <v>-0.6054584982467117</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K5" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04204200607358921</v>
+        <v>0.04300597935418549</v>
       </c>
       <c r="M5" t="n">
-        <v>16.87295948919244</v>
+        <v>16.83367687125256</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9526842993508</v>
+        <v>452.3177538094508</v>
       </c>
       <c r="O5" t="n">
-        <v>21.30616540580099</v>
+        <v>21.26776325355938</v>
       </c>
       <c r="P5" t="n">
-        <v>397.743399203995</v>
+        <v>397.7867439631367</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28848,28 +28848,28 @@
         <v>0.1525</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5698269254825287</v>
+        <v>-0.5804214480471092</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K6" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03583714244552871</v>
+        <v>0.03740399666091077</v>
       </c>
       <c r="M6" t="n">
-        <v>17.64753263811239</v>
+        <v>17.64182081390426</v>
       </c>
       <c r="N6" t="n">
-        <v>486.4270173497374</v>
+        <v>485.1909854672529</v>
       </c>
       <c r="O6" t="n">
-        <v>22.05509050876322</v>
+        <v>22.0270512204256</v>
       </c>
       <c r="P6" t="n">
-        <v>391.5677704639613</v>
+        <v>391.6696258192349</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28926,28 +28926,28 @@
         <v>0.1219</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4609790782579936</v>
+        <v>-0.4638775452346781</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K7" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02273670979449072</v>
+        <v>0.02320472590630074</v>
       </c>
       <c r="M7" t="n">
-        <v>18.11150387036665</v>
+        <v>18.06040422097271</v>
       </c>
       <c r="N7" t="n">
-        <v>496.6508322832664</v>
+        <v>494.8791416531121</v>
       </c>
       <c r="O7" t="n">
-        <v>22.2856642773615</v>
+        <v>22.24587920611618</v>
       </c>
       <c r="P7" t="n">
-        <v>387.8547465205584</v>
+        <v>387.8830793018724</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29004,28 +29004,28 @@
         <v>0.1947</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2902056014163615</v>
+        <v>-0.2905678396644445</v>
       </c>
       <c r="J8" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K8" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008333779745505199</v>
+        <v>0.008424017154306962</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7128777265318</v>
+        <v>18.64239576678524</v>
       </c>
       <c r="N8" t="n">
-        <v>549.3672988663045</v>
+        <v>547.2388281632963</v>
       </c>
       <c r="O8" t="n">
-        <v>23.43858568400202</v>
+        <v>23.39313634729846</v>
       </c>
       <c r="P8" t="n">
-        <v>385.0644799750324</v>
+        <v>385.0680637721525</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29082,28 +29082,28 @@
         <v>0.1551</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07925740356456151</v>
+        <v>-0.09083908405786739</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K9" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000562151958147572</v>
+        <v>0.0007436413371033623</v>
       </c>
       <c r="M9" t="n">
-        <v>19.54159583936491</v>
+        <v>19.52748190231269</v>
       </c>
       <c r="N9" t="n">
-        <v>605.9310333751971</v>
+        <v>604.420542467843</v>
       </c>
       <c r="O9" t="n">
-        <v>24.61566642151289</v>
+        <v>24.58496578130307</v>
       </c>
       <c r="P9" t="n">
-        <v>385.0238802757282</v>
+        <v>385.1386280692296</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29160,28 +29160,28 @@
         <v>0.1246</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2444166034740919</v>
+        <v>0.2342351344525865</v>
       </c>
       <c r="J10" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K10" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005408522188901754</v>
+        <v>0.005010348448446056</v>
       </c>
       <c r="M10" t="n">
-        <v>19.77154593433201</v>
+        <v>19.74320791580748</v>
       </c>
       <c r="N10" t="n">
-        <v>610.7310231157552</v>
+        <v>608.8716750878087</v>
       </c>
       <c r="O10" t="n">
-        <v>24.71297276969639</v>
+        <v>24.67532522759951</v>
       </c>
       <c r="P10" t="n">
-        <v>386.7704734547689</v>
+        <v>386.8684020860301</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29238,28 +29238,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5920709572268003</v>
+        <v>0.5728111191900376</v>
       </c>
       <c r="J11" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K11" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0323485767863767</v>
+        <v>0.03049956717914193</v>
       </c>
       <c r="M11" t="n">
-        <v>18.95081602344716</v>
+        <v>18.96950786212118</v>
       </c>
       <c r="N11" t="n">
-        <v>582.4922954431025</v>
+        <v>582.3505596742089</v>
       </c>
       <c r="O11" t="n">
-        <v>24.13487715823518</v>
+        <v>24.13194065288179</v>
       </c>
       <c r="P11" t="n">
-        <v>380.3259035305458</v>
+        <v>380.5117195355326</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29316,28 +29316,28 @@
         <v>0.1725</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8302901742603905</v>
+        <v>0.8279221381692378</v>
       </c>
       <c r="J12" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K12" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05194439994807154</v>
+        <v>0.05208889701323427</v>
       </c>
       <c r="M12" t="n">
-        <v>20.97926507433104</v>
+        <v>20.90498190807941</v>
       </c>
       <c r="N12" t="n">
-        <v>715.5102924897319</v>
+        <v>712.638402703063</v>
       </c>
       <c r="O12" t="n">
-        <v>26.74902414088656</v>
+        <v>26.69528802435109</v>
       </c>
       <c r="P12" t="n">
-        <v>376.0314370807217</v>
+        <v>376.0542313506811</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29394,28 +29394,28 @@
         <v>0.1155</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9324062297700567</v>
+        <v>0.928415831457844</v>
       </c>
       <c r="J13" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K13" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06083478051579927</v>
+        <v>0.06083775202182862</v>
       </c>
       <c r="M13" t="n">
-        <v>21.57192929168572</v>
+        <v>21.50255382500418</v>
       </c>
       <c r="N13" t="n">
-        <v>747.2891349442602</v>
+        <v>744.3150399359846</v>
       </c>
       <c r="O13" t="n">
-        <v>27.33658967289556</v>
+        <v>27.28213774497857</v>
       </c>
       <c r="P13" t="n">
-        <v>378.1190473626653</v>
+        <v>378.1581840880837</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29472,28 +29472,28 @@
         <v>0.1172</v>
       </c>
       <c r="I14" t="n">
-        <v>0.827164510029866</v>
+        <v>0.8221571295310895</v>
       </c>
       <c r="J14" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K14" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05589234028438406</v>
+        <v>0.05575109565496461</v>
       </c>
       <c r="M14" t="n">
-        <v>20.58379383492521</v>
+        <v>20.52345773456917</v>
       </c>
       <c r="N14" t="n">
-        <v>647.1560567953114</v>
+        <v>644.5471912793074</v>
       </c>
       <c r="O14" t="n">
-        <v>25.43926211184812</v>
+        <v>25.3879339702802</v>
       </c>
       <c r="P14" t="n">
-        <v>381.0678393308038</v>
+        <v>381.1156964674134</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29550,28 +29550,28 @@
         <v>0.0678</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2544289103688004</v>
+        <v>0.2621312730382358</v>
       </c>
       <c r="J15" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K15" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00368135286655602</v>
+        <v>0.003941175695701737</v>
       </c>
       <c r="M15" t="n">
-        <v>24.43060303342866</v>
+        <v>24.35476381169596</v>
       </c>
       <c r="N15" t="n">
-        <v>965.4776778833501</v>
+        <v>961.7772444099953</v>
       </c>
       <c r="O15" t="n">
-        <v>31.07213668036606</v>
+        <v>31.01253366640648</v>
       </c>
       <c r="P15" t="n">
-        <v>391.3006088743142</v>
+        <v>391.2250185865665</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29628,28 +29628,28 @@
         <v>0.0578</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3201202764161405</v>
+        <v>0.3379829208692463</v>
       </c>
       <c r="J16" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K16" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002704612199203482</v>
+        <v>0.003042148041163317</v>
       </c>
       <c r="M16" t="n">
-        <v>30.21781384995313</v>
+        <v>30.12424283543756</v>
       </c>
       <c r="N16" t="n">
-        <v>1992.022280735958</v>
+        <v>1984.579440513427</v>
       </c>
       <c r="O16" t="n">
-        <v>44.63207681405782</v>
+        <v>44.54861883957152</v>
       </c>
       <c r="P16" t="n">
-        <v>382.3429155734834</v>
+        <v>382.162424576527</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29706,28 +29706,28 @@
         <v>0.0559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6674115712031133</v>
+        <v>0.6936233390402293</v>
       </c>
       <c r="J17" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K17" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009804124226175936</v>
+        <v>0.01069278314442257</v>
       </c>
       <c r="M17" t="n">
-        <v>31.90116975202072</v>
+        <v>31.81812191544312</v>
       </c>
       <c r="N17" t="n">
-        <v>2211.645643256421</v>
+        <v>2203.314482935245</v>
       </c>
       <c r="O17" t="n">
-        <v>47.02813671895179</v>
+        <v>46.93947680721681</v>
       </c>
       <c r="P17" t="n">
-        <v>362.2864039813497</v>
+        <v>362.011905353417</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29787,7 +29787,7 @@
         <v>2.857186350770437</v>
       </c>
       <c r="J18" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K18" t="n">
         <v>192</v>
@@ -29865,7 +29865,7 @@
         <v>1.131027086429239</v>
       </c>
       <c r="J19" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K19" t="n">
         <v>187</v>
@@ -29940,28 +29940,28 @@
         <v>0.0631</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1351276160520444</v>
+        <v>-0.04040124510830594</v>
       </c>
       <c r="J20" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K20" t="n">
         <v>180</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004825812300562893</v>
+        <v>4.176987246051755e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>34.0133956109069</v>
+        <v>34.58318385486307</v>
       </c>
       <c r="N20" t="n">
-        <v>2303.449692716855</v>
+        <v>2380.32651643959</v>
       </c>
       <c r="O20" t="n">
-        <v>47.9942672901343</v>
+        <v>48.78859002307394</v>
       </c>
       <c r="P20" t="n">
-        <v>354.8341570319453</v>
+        <v>356.451154033643</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30021,7 +30021,7 @@
         <v>-1.738604858697301</v>
       </c>
       <c r="J21" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K21" t="n">
         <v>197</v>
@@ -30096,28 +30096,28 @@
         <v>0.063</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3170139883398297</v>
+        <v>0.3377976399722114</v>
       </c>
       <c r="J22" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K22" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006867142728418374</v>
+        <v>0.007887190917450271</v>
       </c>
       <c r="M22" t="n">
-        <v>22.9847746806877</v>
+        <v>22.94998161247466</v>
       </c>
       <c r="N22" t="n">
-        <v>871.4072796327337</v>
+        <v>868.1504109305389</v>
       </c>
       <c r="O22" t="n">
-        <v>29.51960839226587</v>
+        <v>29.46439225455938</v>
       </c>
       <c r="P22" t="n">
-        <v>345.884948456111</v>
+        <v>345.7056725819772</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30174,28 +30174,28 @@
         <v>0.0872</v>
       </c>
       <c r="I23" t="n">
-        <v>1.114028068965594</v>
+        <v>1.105841056836412</v>
       </c>
       <c r="J23" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K23" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1014733104544742</v>
+        <v>0.1009998501076304</v>
       </c>
       <c r="M23" t="n">
-        <v>19.40257371515235</v>
+        <v>19.35621600324409</v>
       </c>
       <c r="N23" t="n">
-        <v>637.7085104911225</v>
+        <v>635.13944050843</v>
       </c>
       <c r="O23" t="n">
-        <v>25.25289113133628</v>
+        <v>25.20197294872824</v>
       </c>
       <c r="P23" t="n">
-        <v>335.7776446758973</v>
+        <v>335.8544625926711</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30252,28 +30252,28 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>1.099790538599112</v>
+        <v>1.082775932585528</v>
       </c>
       <c r="J24" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K24" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09113869475822389</v>
+        <v>0.08911569681643161</v>
       </c>
       <c r="M24" t="n">
-        <v>20.13998673783514</v>
+        <v>20.13204443626169</v>
       </c>
       <c r="N24" t="n">
-        <v>684.3235120483802</v>
+        <v>683.144413103531</v>
       </c>
       <c r="O24" t="n">
-        <v>26.15957782626433</v>
+        <v>26.13703145163067</v>
       </c>
       <c r="P24" t="n">
-        <v>337.4922025237687</v>
+        <v>337.6571160753034</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30330,28 +30330,28 @@
         <v>0.1527</v>
       </c>
       <c r="I25" t="n">
-        <v>1.003566138654921</v>
+        <v>0.9976454201035861</v>
       </c>
       <c r="J25" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K25" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08594981365427845</v>
+        <v>0.08573144212200756</v>
       </c>
       <c r="M25" t="n">
-        <v>19.26888588228891</v>
+        <v>19.21204312168352</v>
       </c>
       <c r="N25" t="n">
-        <v>610.8356835834988</v>
+        <v>608.3692970128258</v>
       </c>
       <c r="O25" t="n">
-        <v>24.7150901997848</v>
+        <v>24.66514336088128</v>
       </c>
       <c r="P25" t="n">
-        <v>321.3357596794563</v>
+        <v>321.3925686960573</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30408,28 +30408,28 @@
         <v>0.161</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9062940615010862</v>
+        <v>0.9058737889212306</v>
       </c>
       <c r="J26" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K26" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08230305881473066</v>
+        <v>0.08291401889872263</v>
       </c>
       <c r="M26" t="n">
-        <v>17.71754736785688</v>
+        <v>17.6445793112508</v>
       </c>
       <c r="N26" t="n">
-        <v>518.2279021228094</v>
+        <v>516.0331329836838</v>
       </c>
       <c r="O26" t="n">
-        <v>22.76461952510538</v>
+        <v>22.71636267063202</v>
       </c>
       <c r="P26" t="n">
-        <v>302.5109243097542</v>
+        <v>302.514996171962</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30486,28 +30486,28 @@
         <v>0.0988</v>
       </c>
       <c r="I27" t="n">
-        <v>0.78265761047656</v>
+        <v>0.7748933511400219</v>
       </c>
       <c r="J27" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K27" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07327707014868845</v>
+        <v>0.07247098264371632</v>
       </c>
       <c r="M27" t="n">
-        <v>16.28448381100192</v>
+        <v>16.26079337310115</v>
       </c>
       <c r="N27" t="n">
-        <v>432.7242409896265</v>
+        <v>431.3076775336382</v>
       </c>
       <c r="O27" t="n">
-        <v>20.80202492522366</v>
+        <v>20.76794832268316</v>
       </c>
       <c r="P27" t="n">
-        <v>291.3951230026043</v>
+        <v>291.4709443178571</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30564,28 +30564,28 @@
         <v>0.1029</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8622117808594417</v>
+        <v>0.8498683921679294</v>
       </c>
       <c r="J28" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K28" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1019187642722285</v>
+        <v>0.09980907381077042</v>
       </c>
       <c r="M28" t="n">
-        <v>14.79061927158003</v>
+        <v>14.79965455147998</v>
       </c>
       <c r="N28" t="n">
-        <v>374.8510542126347</v>
+        <v>374.3759371376038</v>
       </c>
       <c r="O28" t="n">
-        <v>19.36107058539467</v>
+        <v>19.34879678785231</v>
       </c>
       <c r="P28" t="n">
-        <v>279.9214370952384</v>
+        <v>280.0408705474598</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">

--- a/data/nzd0425/nzd0425.xlsx
+++ b/data/nzd0425/nzd0425.xlsx
@@ -28527,13 +28527,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0582</v>
+        <v>0.0925</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.1361</v>
       </c>
       <c r="I2" t="n">
         <v>-0.696601655455237</v>
@@ -28605,13 +28605,13 @@
         <v>0.9615018992965122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0543</v>
+        <v>0.0635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.1113</v>
       </c>
       <c r="I3" t="n">
         <v>-0.7755296065394325</v>
@@ -28683,13 +28683,13 @@
         <v>0.9230037985942435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0538</v>
+        <v>0.0861</v>
       </c>
       <c r="H4" t="n">
-        <v>0.099</v>
+        <v>0.1963</v>
       </c>
       <c r="I4" t="n">
         <v>-0.7288581033381119</v>
@@ -28761,13 +28761,13 @@
         <v>0.8845056978907557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0622</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1542</v>
+        <v>0.1229</v>
       </c>
       <c r="I5" t="n">
         <v>-0.6054938033910913</v>
@@ -28839,13 +28839,13 @@
         <v>0.8462300222011075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0742</v>
+        <v>0.0634</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1525</v>
+        <v>0.1248</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5804214480471092</v>
@@ -28917,13 +28917,13 @@
         <v>0.8077319214982728</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0569</v>
+        <v>0.0678</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1219</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4638812795040821</v>
@@ -28995,13 +28995,13 @@
         <v>0.7692338207954379</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0555</v>
+        <v>0.0751</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1947</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2905476528076553</v>
@@ -29073,13 +29073,13 @@
         <v>0.7307357200926031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0617</v>
+        <v>0.0731</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1551</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>-0.09088238794183469</v>
@@ -29151,13 +29151,13 @@
         <v>0.6922376193899945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0543</v>
+        <v>0.0643</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1246</v>
+        <v>0.1309</v>
       </c>
       <c r="I10" t="n">
         <v>0.234240866294351</v>
@@ -29229,10 +29229,10 @@
         <v>0.6538220463999449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.145</v>
+        <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0859</v>
+        <v>0.1127</v>
       </c>
       <c r="H11" t="n">
         <v>0.2</v>
@@ -29307,13 +29307,13 @@
         <v>0.6153239456968506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0619</v>
+        <v>0.0925</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1725</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>0.8278794392129303</v>
@@ -29385,13 +29385,13 @@
         <v>0.5768258449937563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.055</v>
+        <v>0.0697</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1155</v>
+        <v>0.1835</v>
       </c>
       <c r="I13" t="n">
         <v>0.9284109349366328</v>
@@ -29463,13 +29463,13 @@
         <v>0.5383277442906621</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0609</v>
+        <v>0.0732</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1172</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>0.8221501790714726</v>
@@ -29541,13 +29541,13 @@
         <v>0.4998296435875678</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0436</v>
+        <v>0.0476</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0678</v>
+        <v>0.0862</v>
       </c>
       <c r="I15" t="n">
         <v>0.2621149985899054</v>
@@ -29619,13 +29619,13 @@
         <v>0.4613315428844735</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0354</v>
+        <v>0.0418</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0578</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>0.3379543406594862</v>
@@ -29697,13 +29697,13 @@
         <v>0.4228334421816434</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0274</v>
+        <v>0.0358</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0559</v>
+        <v>0.0687</v>
       </c>
       <c r="I17" t="n">
         <v>0.6936366956210931</v>
@@ -29775,13 +29775,13 @@
         <v>0.3844887387243485</v>
       </c>
       <c r="F18" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0409</v>
+        <v>0.0291</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0919</v>
+        <v>0.0464</v>
       </c>
       <c r="I18" t="n">
         <v>2.857187920922807</v>
@@ -29853,13 +29853,13 @@
         <v>0.3459906380216984</v>
       </c>
       <c r="F19" t="n">
-        <v>0.055</v>
+        <v>0.025</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0418</v>
+        <v>0.0236</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0789</v>
+        <v>0.0321</v>
       </c>
       <c r="I19" t="n">
         <v>1.131028897411253</v>
@@ -29931,13 +29931,13 @@
         <v>0.3074925373179</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0385</v>
+        <v>0.0192</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0631</v>
+        <v>0.0269</v>
       </c>
       <c r="I20" t="n">
         <v>-0.04040124510830607</v>
@@ -30009,13 +30009,13 @@
         <v>0.26899443661525</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0.025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0469</v>
+        <v>0.0224</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.0312</v>
       </c>
       <c r="I21" t="n">
         <v>-1.738604858697301</v>
@@ -30087,13 +30087,13 @@
         <v>0.2304963359125998</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0428</v>
+        <v>0.0184</v>
       </c>
       <c r="H22" t="n">
-        <v>0.063</v>
+        <v>0.0247</v>
       </c>
       <c r="I22" t="n">
         <v>0.3377976399722112</v>
@@ -30165,13 +30165,13 @@
         <v>0.1919982352090163</v>
       </c>
       <c r="F23" t="n">
-        <v>0.065</v>
+        <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>0.052</v>
+        <v>0.0297</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0872</v>
+        <v>0.0528</v>
       </c>
       <c r="I23" t="n">
         <v>1.105792037727519</v>
@@ -30243,13 +30243,13 @@
         <v>0.1535001345052179</v>
       </c>
       <c r="F24" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0529</v>
+        <v>0.0362</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.0794</v>
       </c>
       <c r="I24" t="n">
         <v>1.082720728888045</v>
@@ -30321,13 +30321,13 @@
         <v>0.1154943021089869</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09</v>
+        <v>0.065</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0626</v>
+        <v>0.0442</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1527</v>
+        <v>0.1141</v>
       </c>
       <c r="I25" t="n">
         <v>0.9976104975515717</v>
@@ -30399,13 +30399,13 @@
         <v>0.07699620140632654</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0625</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.161</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
         <v>0.9058281933011759</v>
@@ -30477,13 +30477,13 @@
         <v>0.03849810070316327</v>
       </c>
       <c r="F27" t="n">
-        <v>0.075</v>
+        <v>0.125</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0578</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0988</v>
+        <v>0.2</v>
       </c>
       <c r="I27" t="n">
         <v>0.7748937258488365</v>
@@ -30558,10 +30558,10 @@
         <v>0.08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0663</v>
+        <v>0.0621</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1029</v>
+        <v>0.121</v>
       </c>
       <c r="I28" t="n">
         <v>0.8498707405097993</v>
